--- a/Financial Analysis/VOW.xlsx
+++ b/Financial Analysis/VOW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196FC083-FE2F-46EA-89F6-1DE2EE0995C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B4C7A-6513-4DED-9109-3149FB37AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C257106A-0721-4BB9-8668-4D99D6414045}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>Revenue</t>
   </si>
@@ -358,6 +358,60 @@
   </si>
   <si>
     <t>Overvalued</t>
+  </si>
+  <si>
+    <t>depends on expenses</t>
+  </si>
+  <si>
+    <t>Pretax profit</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Pensions</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Other non-cash</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Receivables</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Total CapEx</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>NPV (FCF)</t>
   </si>
 </sst>
 </file>
@@ -770,8 +824,8 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -787,7 +841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26631900" y="15240"/>
-          <a:ext cx="0" cy="8930640"/>
+          <a:ext cx="0" cy="13068300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1055,7 +1109,13 @@
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>45.55</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="AL3">
@@ -1568,17 +1628,17 @@
         <v>24</v>
       </c>
       <c r="D3" s="4">
-        <v>98.9</v>
+        <v>98.4</v>
       </c>
       <c r="E3" s="5">
-        <v>45771</v>
+        <v>45782</v>
       </c>
       <c r="F3" s="5">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45782</v>
       </c>
       <c r="G3" s="5">
-        <v>45777</v>
+        <v>45863</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="7" t="s">
@@ -1609,7 +1669,7 @@
         <v>501.3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>42</v>
@@ -1639,7 +1699,7 @@
       </c>
       <c r="D5" s="6">
         <f>D4*D3</f>
-        <v>49578.570000000007</v>
+        <v>49327.920000000006</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>43</v>
@@ -1668,11 +1728,11 @@
         <v>26</v>
       </c>
       <c r="D6" s="6">
-        <f>40296+27326</f>
-        <v>67622</v>
+        <f>36756+27915</f>
+        <v>64671</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>51</v>
@@ -1701,11 +1761,11 @@
         <v>27</v>
       </c>
       <c r="D7" s="6">
-        <f>117020+137061</f>
-        <v>254081</v>
+        <f>120615+131439</f>
+        <v>252054</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>47</v>
@@ -1735,7 +1795,7 @@
       </c>
       <c r="D8" s="6">
         <f>D6-D7</f>
-        <v>-186459</v>
+        <v>-187383</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>44</v>
@@ -1765,7 +1825,7 @@
       </c>
       <c r="D9" s="6">
         <f>D5-D6+D7</f>
-        <v>236037.57</v>
+        <v>236710.92</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>49</v>
@@ -1941,13 +2001,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0026E3C-30BA-4B28-BB1D-F276369A9923}">
-  <dimension ref="B1:FB46"/>
+  <dimension ref="B1:FB73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BG8" sqref="BG8"/>
+      <selection pane="bottomRight" activeCell="AU66" sqref="AU66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,20 +2275,19 @@
         <v>87378</v>
       </c>
       <c r="AE3" s="14">
-        <f>AD3*1.01</f>
-        <v>88251.78</v>
+        <v>77558</v>
       </c>
       <c r="AF3" s="14">
-        <f t="shared" ref="AF3:AH3" si="0">AE3*1.01</f>
-        <v>89134.2978</v>
+        <f>AB3*1.01</f>
+        <v>84172.39</v>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" si="0"/>
-        <v>90025.640778000001</v>
+        <f t="shared" ref="AG3:AH3" si="0">AC3*1.01</f>
+        <v>79262.78</v>
       </c>
       <c r="AH3" s="14">
         <f t="shared" si="0"/>
-        <v>90925.897185780006</v>
+        <v>88251.78</v>
       </c>
       <c r="AJ3" s="14">
         <f>SUM(C3:F3)</f>
@@ -2254,48 +2313,48 @@
         <v>324656</v>
       </c>
       <c r="AQ3" s="14">
-        <f>AP3*1.01</f>
-        <v>327902.56</v>
+        <f>SUM(AE3:AH3)</f>
+        <v>329244.95</v>
       </c>
       <c r="AR3" s="14">
         <f>AQ3*1.01</f>
-        <v>331181.58559999999</v>
+        <v>332537.3995</v>
       </c>
       <c r="AS3" s="14">
         <f>AR3*1.01</f>
-        <v>334493.40145599999</v>
+        <v>335862.77349500003</v>
       </c>
       <c r="AT3" s="14">
         <f t="shared" ref="AT3:BA3" si="1">AS3*1.01</f>
-        <v>337838.33547056001</v>
+        <v>339221.40122995002</v>
       </c>
       <c r="AU3" s="14">
         <f t="shared" si="1"/>
-        <v>341216.71882526559</v>
+        <v>342613.61524224951</v>
       </c>
       <c r="AV3" s="14">
         <f t="shared" si="1"/>
-        <v>344628.88601351826</v>
+        <v>346039.75139467203</v>
       </c>
       <c r="AW3" s="14">
         <f t="shared" si="1"/>
-        <v>348075.17487365345</v>
+        <v>349500.14890861878</v>
       </c>
       <c r="AX3" s="14">
         <f t="shared" si="1"/>
-        <v>351555.92662238999</v>
+        <v>352995.15039770497</v>
       </c>
       <c r="AY3" s="14">
         <f t="shared" si="1"/>
-        <v>355071.48588861391</v>
+        <v>356525.10190168204</v>
       </c>
       <c r="AZ3" s="14">
         <f t="shared" si="1"/>
-        <v>358622.20074750006</v>
+        <v>360090.35292069888</v>
       </c>
       <c r="BA3" s="14">
         <f t="shared" si="1"/>
-        <v>362208.42275497504</v>
+        <v>363691.25644990586</v>
       </c>
     </row>
     <row r="4" spans="2:158" x14ac:dyDescent="0.3">
@@ -2394,20 +2453,19 @@
         <v>70291</v>
       </c>
       <c r="AE4" s="6">
-        <f>AE3-AE5</f>
-        <v>72366.459600000002</v>
+        <v>64758</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" ref="AF4:AH4" si="2">AF3-AF5</f>
-        <v>73090.124196000004</v>
+        <v>69021.359800000006</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" si="2"/>
-        <v>73821.025437959994</v>
+        <v>64995.479599999999</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" si="2"/>
-        <v>74559.2356923396</v>
+        <v>71483.941800000001</v>
       </c>
       <c r="AJ4" s="6">
         <f>SUM(C4:F4)</f>
@@ -2433,48 +2491,48 @@
         <v>265184</v>
       </c>
       <c r="AQ4" s="6">
-        <f t="shared" ref="AQ4:AV4" si="3">AQ3-AQ5</f>
-        <v>268880.0992</v>
+        <f>SUM(AE4:AH4)</f>
+        <v>270258.78119999997</v>
       </c>
       <c r="AR4" s="6">
-        <f t="shared" si="3"/>
-        <v>271568.90019199997</v>
+        <f t="shared" ref="AR4:AV4" si="3">AR3-AR5</f>
+        <v>272680.66759000003</v>
       </c>
       <c r="AS4" s="6">
         <f t="shared" si="3"/>
-        <v>274284.58919392002</v>
+        <v>275407.47426590003</v>
       </c>
       <c r="AT4" s="6">
         <f t="shared" si="3"/>
-        <v>277027.43508585921</v>
+        <v>278161.54900855903</v>
       </c>
       <c r="AU4" s="6">
         <f t="shared" si="3"/>
-        <v>279797.70943671779</v>
+        <v>280943.16449864459</v>
       </c>
       <c r="AV4" s="6">
         <f t="shared" si="3"/>
-        <v>282595.686531085</v>
+        <v>283752.59614363109</v>
       </c>
       <c r="AW4" s="6">
         <f t="shared" ref="AW4:BA4" si="4">AW3-AW5</f>
-        <v>285421.64339639584</v>
+        <v>286590.12210506742</v>
       </c>
       <c r="AX4" s="6">
         <f t="shared" si="4"/>
-        <v>288275.85983035981</v>
+        <v>289456.02332611807</v>
       </c>
       <c r="AY4" s="6">
         <f t="shared" si="4"/>
-        <v>291158.61842866341</v>
+        <v>292350.58355937927</v>
       </c>
       <c r="AZ4" s="6">
         <f t="shared" si="4"/>
-        <v>294070.20461295004</v>
+        <v>295274.08939497307</v>
       </c>
       <c r="BA4" s="6">
         <f t="shared" si="4"/>
-        <v>297010.90665907954</v>
+        <v>298226.83028892282</v>
       </c>
     </row>
     <row r="5" spans="2:158" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2578,7 +2636,7 @@
         <v>16698</v>
       </c>
       <c r="AA5" s="14">
-        <f t="shared" ref="AA5:AC5" si="13">AA3-AA4</f>
+        <f t="shared" ref="AA5:AE5" si="13">AA3-AA4</f>
         <v>13546</v>
       </c>
       <c r="AB5" s="14">
@@ -2590,24 +2648,24 @@
         <v>13058</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" ref="AD5" si="14">AD3*0.19</f>
-        <v>16601.82</v>
+        <f t="shared" si="13"/>
+        <v>17087</v>
       </c>
       <c r="AE5" s="14">
-        <f>AE3*0.18</f>
-        <v>15885.320399999999</v>
+        <f t="shared" si="13"/>
+        <v>12800</v>
       </c>
       <c r="AF5" s="14">
-        <f t="shared" ref="AF5:AH5" si="15">AF3*0.18</f>
-        <v>16044.173604</v>
+        <f t="shared" ref="AF5:AG5" si="14">AF3*0.18</f>
+        <v>15151.030199999999</v>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="15"/>
-        <v>16204.61534004</v>
+        <f t="shared" si="14"/>
+        <v>14267.3004</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" si="15"/>
-        <v>16366.661493440401</v>
+        <f>AH3*0.19</f>
+        <v>16767.838199999998</v>
       </c>
       <c r="AJ5" s="14">
         <f>AJ3-AJ4</f>
@@ -2622,64 +2680,64 @@
         <v>38947</v>
       </c>
       <c r="AM5" s="14">
-        <f t="shared" ref="AM5:AP5" si="16">AM3-AM4</f>
+        <f t="shared" ref="AM5:AQ5" si="15">AM3-AM4</f>
         <v>47241</v>
       </c>
       <c r="AN5" s="14">
+        <f t="shared" si="15"/>
+        <v>52227</v>
+      </c>
+      <c r="AO5" s="14">
+        <f t="shared" si="15"/>
+        <v>61022</v>
+      </c>
+      <c r="AP5" s="14">
+        <f t="shared" si="15"/>
+        <v>59472</v>
+      </c>
+      <c r="AQ5" s="14">
+        <f t="shared" si="15"/>
+        <v>58986.168800000043</v>
+      </c>
+      <c r="AR5" s="14">
+        <f t="shared" ref="AR5:BA5" si="16">AR3*0.18</f>
+        <v>59856.731909999995</v>
+      </c>
+      <c r="AS5" s="14">
         <f t="shared" si="16"/>
-        <v>52227</v>
-      </c>
-      <c r="AO5" s="14">
+        <v>60455.299229100005</v>
+      </c>
+      <c r="AT5" s="14">
         <f t="shared" si="16"/>
-        <v>61022</v>
-      </c>
-      <c r="AP5" s="14">
+        <v>61059.852221391004</v>
+      </c>
+      <c r="AU5" s="14">
         <f t="shared" si="16"/>
-        <v>59472</v>
-      </c>
-      <c r="AQ5" s="14">
-        <f>AQ3*0.18</f>
-        <v>59022.460800000001</v>
-      </c>
-      <c r="AR5" s="14">
-        <f t="shared" ref="AR5:BA5" si="17">AR3*0.18</f>
-        <v>59612.685407999998</v>
-      </c>
-      <c r="AS5" s="14">
-        <f t="shared" si="17"/>
-        <v>60208.812262079999</v>
-      </c>
-      <c r="AT5" s="14">
-        <f t="shared" si="17"/>
-        <v>60810.900384700799</v>
-      </c>
-      <c r="AU5" s="14">
-        <f t="shared" si="17"/>
-        <v>61419.009388547805</v>
+        <v>61670.45074360491</v>
       </c>
       <c r="AV5" s="14">
-        <f t="shared" si="17"/>
-        <v>62033.199482433287</v>
+        <f t="shared" si="16"/>
+        <v>62287.15525104096</v>
       </c>
       <c r="AW5" s="14">
-        <f t="shared" si="17"/>
-        <v>62653.531477257617</v>
+        <f t="shared" si="16"/>
+        <v>62910.02680355138</v>
       </c>
       <c r="AX5" s="14">
-        <f t="shared" si="17"/>
-        <v>63280.066792030193</v>
+        <f t="shared" si="16"/>
+        <v>63539.127071586896</v>
       </c>
       <c r="AY5" s="14">
-        <f t="shared" si="17"/>
-        <v>63912.867459950503</v>
+        <f t="shared" si="16"/>
+        <v>64174.518342302763</v>
       </c>
       <c r="AZ5" s="14">
-        <f t="shared" si="17"/>
-        <v>64551.996134550005</v>
+        <f t="shared" si="16"/>
+        <v>64816.263525725793</v>
       </c>
       <c r="BA5" s="14">
-        <f t="shared" si="17"/>
-        <v>65197.516095895502</v>
+        <f t="shared" si="16"/>
+        <v>65464.42616098305</v>
       </c>
     </row>
     <row r="6" spans="2:158" x14ac:dyDescent="0.3">
@@ -2774,13 +2832,24 @@
         <v>5496</v>
       </c>
       <c r="AD6" s="6">
-        <f t="shared" ref="AD6:AD8" si="18">AP6-AC6-AB6-AA6</f>
+        <f t="shared" ref="AD6:AD8" si="17">AP6-AC6-AB6-AA6</f>
         <v>6312</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
+      <c r="AE6" s="6">
+        <v>5425</v>
+      </c>
+      <c r="AF6" s="6">
+        <f>AF3*0.065</f>
+        <v>5471.2053500000002</v>
+      </c>
+      <c r="AG6" s="6">
+        <f t="shared" ref="AG6:AH6" si="18">AG3*0.07</f>
+        <v>5548.3946000000005</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" si="18"/>
+        <v>6177.6246000000001</v>
+      </c>
       <c r="AJ6" s="6">
         <f>SUM(C6:F6)</f>
         <v>20510</v>
@@ -2805,48 +2874,48 @@
         <v>22320</v>
       </c>
       <c r="AQ6" s="6">
-        <f>AQ3*0.07</f>
-        <v>22953.179200000002</v>
+        <f>SUM(AE6:AH6)</f>
+        <v>22622.224549999999</v>
       </c>
       <c r="AR6" s="6">
         <f t="shared" ref="AR6:BA6" si="19">AR3*0.07</f>
-        <v>23182.710992</v>
+        <v>23277.617965000001</v>
       </c>
       <c r="AS6" s="6">
         <f t="shared" si="19"/>
-        <v>23414.538101920003</v>
+        <v>23510.394144650003</v>
       </c>
       <c r="AT6" s="6">
         <f t="shared" si="19"/>
-        <v>23648.683482939203</v>
+        <v>23745.498086096504</v>
       </c>
       <c r="AU6" s="6">
         <f t="shared" si="19"/>
-        <v>23885.170317768592</v>
+        <v>23982.953066957467</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" si="19"/>
-        <v>24124.022020946282</v>
+        <v>24222.782597627043</v>
       </c>
       <c r="AW6" s="6">
         <f t="shared" si="19"/>
-        <v>24365.262241155742</v>
+        <v>24465.010423603318</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" si="19"/>
-        <v>24608.914863567301</v>
+        <v>24709.660527839351</v>
       </c>
       <c r="AY6" s="6">
         <f t="shared" si="19"/>
-        <v>24855.004012202975</v>
+        <v>24956.757133117746</v>
       </c>
       <c r="AZ6" s="6">
         <f t="shared" si="19"/>
-        <v>25103.554052325006</v>
+        <v>25206.324704448925</v>
       </c>
       <c r="BA6" s="6">
         <f t="shared" si="19"/>
-        <v>25354.589592848253</v>
+        <v>25458.387951493412</v>
       </c>
     </row>
     <row r="7" spans="2:158" x14ac:dyDescent="0.3">
@@ -2941,13 +3010,24 @@
         <v>2754</v>
       </c>
       <c r="AD7" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3387</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
+      <c r="AE7" s="6">
+        <v>3344</v>
+      </c>
+      <c r="AF7" s="6">
+        <f>AF3*0.04</f>
+        <v>3366.8955999999998</v>
+      </c>
+      <c r="AG7" s="6">
+        <f t="shared" ref="AG7:AH7" si="20">AG3*0.04</f>
+        <v>3170.5111999999999</v>
+      </c>
+      <c r="AH7" s="6">
+        <f t="shared" si="20"/>
+        <v>3530.0711999999999</v>
+      </c>
       <c r="AJ7" s="6">
         <f>SUM(C7:F7)</f>
         <v>8819</v>
@@ -2972,48 +3052,48 @@
         <v>12754</v>
       </c>
       <c r="AQ7" s="6">
-        <f>AP7*1.01</f>
-        <v>12881.54</v>
+        <f>SUM(AE7:AH7)</f>
+        <v>13411.478000000001</v>
       </c>
       <c r="AR7" s="6">
-        <f t="shared" ref="AR7:BA7" si="20">AQ7*1.01</f>
-        <v>13010.3554</v>
+        <f t="shared" ref="AR7:BA7" si="21">AQ7*1.01</f>
+        <v>13545.592780000001</v>
       </c>
       <c r="AS7" s="6">
-        <f t="shared" si="20"/>
-        <v>13140.458954</v>
+        <f t="shared" si="21"/>
+        <v>13681.048707800001</v>
       </c>
       <c r="AT7" s="6">
-        <f t="shared" si="20"/>
-        <v>13271.863543539999</v>
+        <f t="shared" si="21"/>
+        <v>13817.859194878001</v>
       </c>
       <c r="AU7" s="6">
-        <f t="shared" si="20"/>
-        <v>13404.582178975399</v>
+        <f t="shared" si="21"/>
+        <v>13956.037786826781</v>
       </c>
       <c r="AV7" s="6">
-        <f t="shared" si="20"/>
-        <v>13538.628000765153</v>
+        <f t="shared" si="21"/>
+        <v>14095.598164695048</v>
       </c>
       <c r="AW7" s="6">
-        <f t="shared" si="20"/>
-        <v>13674.014280772804</v>
+        <f t="shared" si="21"/>
+        <v>14236.554146341998</v>
       </c>
       <c r="AX7" s="6">
-        <f t="shared" si="20"/>
-        <v>13810.754423580533</v>
+        <f t="shared" si="21"/>
+        <v>14378.919687805417</v>
       </c>
       <c r="AY7" s="6">
-        <f t="shared" si="20"/>
-        <v>13948.861967816338</v>
+        <f t="shared" si="21"/>
+        <v>14522.708884683472</v>
       </c>
       <c r="AZ7" s="6">
-        <f t="shared" si="20"/>
-        <v>14088.3505874945</v>
+        <f t="shared" si="21"/>
+        <v>14667.935973530308</v>
       </c>
       <c r="BA7" s="6">
-        <f t="shared" si="20"/>
-        <v>14229.234093369445</v>
+        <f t="shared" si="21"/>
+        <v>14814.61533326561</v>
       </c>
     </row>
     <row r="8" spans="2:158" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3108,13 +3188,21 @@
         <v>1954</v>
       </c>
       <c r="AD8" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1234</v>
       </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
+      <c r="AE8" s="6">
+        <v>1157</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>1200</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>1200</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>1200</v>
+      </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="6">
         <f>SUM(C8:F8)</f>
@@ -3144,47 +3232,47 @@
         <v>5338</v>
       </c>
       <c r="AQ8" s="6">
-        <v>1800</v>
+        <f>SUM(AE8:AH8)</f>
+        <v>4757</v>
       </c>
       <c r="AR8" s="6">
-        <f t="shared" ref="AR8:BA8" si="21">AQ8*1.01</f>
-        <v>1818</v>
+        <v>1600</v>
       </c>
       <c r="AS8" s="6">
-        <f t="shared" si="21"/>
-        <v>1836.18</v>
+        <f t="shared" ref="AS8:BA8" si="22">AR8*1.01</f>
+        <v>1616</v>
       </c>
       <c r="AT8" s="6">
-        <f t="shared" si="21"/>
-        <v>1854.5418000000002</v>
+        <f t="shared" si="22"/>
+        <v>1632.16</v>
       </c>
       <c r="AU8" s="6">
-        <f t="shared" si="21"/>
-        <v>1873.0872180000001</v>
+        <f t="shared" si="22"/>
+        <v>1648.4816000000001</v>
       </c>
       <c r="AV8" s="6">
-        <f t="shared" si="21"/>
-        <v>1891.8180901800001</v>
+        <f t="shared" si="22"/>
+        <v>1664.966416</v>
       </c>
       <c r="AW8" s="6">
-        <f t="shared" si="21"/>
-        <v>1910.7362710818002</v>
+        <f t="shared" si="22"/>
+        <v>1681.6160801599999</v>
       </c>
       <c r="AX8" s="6">
-        <f t="shared" si="21"/>
-        <v>1929.8436337926182</v>
+        <f t="shared" si="22"/>
+        <v>1698.4322409616</v>
       </c>
       <c r="AY8" s="6">
-        <f t="shared" si="21"/>
-        <v>1949.1420701305444</v>
+        <f t="shared" si="22"/>
+        <v>1715.4165633712159</v>
       </c>
       <c r="AZ8" s="6">
-        <f t="shared" si="21"/>
-        <v>1968.6334908318499</v>
+        <f t="shared" si="22"/>
+        <v>1732.5707290049281</v>
       </c>
       <c r="BA8" s="6">
-        <f t="shared" si="21"/>
-        <v>1988.3198257401684</v>
+        <f t="shared" si="22"/>
+        <v>1749.8964362949773</v>
       </c>
     </row>
     <row r="9" spans="2:158" x14ac:dyDescent="0.3">
@@ -3196,189 +3284,201 @@
         <v>4212</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" ref="D9:Q9" si="22">D5-D6-D7-D8</f>
+        <f t="shared" ref="D9:Q9" si="23">D5-D6-D7-D8</f>
         <v>3949</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2711</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3048</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3868</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5129</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4542</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3421</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>904</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2394</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3183</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7982</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4813</v>
       </c>
       <c r="P9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6548</v>
       </c>
       <c r="Q9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2596</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" ref="R9" si="23">R5-R6-R7-R8</f>
+        <f t="shared" ref="R9" si="24">R5-R6-R7-R8</f>
         <v>5318</v>
       </c>
       <c r="S9" s="14">
-        <f t="shared" ref="S9:T9" si="24">S5-S6-S7-S8</f>
+        <f t="shared" ref="S9:T9" si="25">S5-S6-S7-S8</f>
         <v>8324</v>
       </c>
       <c r="T9" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4504</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" ref="U9:V9" si="25">U5-U6-U7-U8</f>
+        <f t="shared" ref="U9:V9" si="26">U5-U6-U7-U8</f>
         <v>4269</v>
       </c>
       <c r="V9" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5027</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" ref="W9:X9" si="26">W5-W6-W7-W8</f>
+        <f t="shared" ref="W9:X9" si="27">W5-W6-W7-W8</f>
         <v>5746</v>
       </c>
       <c r="X9" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5600</v>
       </c>
       <c r="Y9" s="14">
-        <f t="shared" ref="Y9" si="27">Y5-Y6-Y7-Y8</f>
+        <f t="shared" ref="Y9" si="28">Y5-Y6-Y7-Y8</f>
         <v>4895</v>
       </c>
       <c r="Z9" s="14">
-        <f t="shared" ref="Z9" si="28">Z5-Z6-Z7-Z8</f>
+        <f t="shared" ref="Z9" si="29">Z5-Z6-Z7-Z8</f>
         <v>6335</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" ref="AA9:AD9" si="29">AA5-AA6-AA7-AA8</f>
+        <f t="shared" ref="AA9:AD9" si="30">AA5-AA6-AA7-AA8</f>
         <v>4588</v>
       </c>
       <c r="AB9" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5464</v>
       </c>
       <c r="AC9" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2854</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" si="29"/>
-        <v>5668.82</v>
-      </c>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
+        <f t="shared" si="30"/>
+        <v>6154</v>
+      </c>
+      <c r="AE9" s="14">
+        <f t="shared" ref="AE9:AH9" si="31">AE5-AE6-AE7-AE8</f>
+        <v>2874</v>
+      </c>
+      <c r="AF9" s="14">
+        <f t="shared" si="31"/>
+        <v>5112.9292499999992</v>
+      </c>
+      <c r="AG9" s="14">
+        <f t="shared" si="31"/>
+        <v>4348.3946000000005</v>
+      </c>
+      <c r="AH9" s="14">
+        <f t="shared" si="31"/>
+        <v>5860.1423999999988</v>
+      </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="14">
-        <f t="shared" ref="AJ9:AV9" si="30">AJ5-AJ6-AJ7-AJ8</f>
+        <f t="shared" ref="AJ9:AV9" si="32">AJ5-AJ6-AJ7-AJ8</f>
         <v>13920</v>
       </c>
       <c r="AK9" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>16960</v>
       </c>
       <c r="AL9" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9675</v>
       </c>
       <c r="AM9" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>19275</v>
       </c>
       <c r="AN9" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22124</v>
       </c>
       <c r="AO9" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22576</v>
       </c>
       <c r="AP9" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>19060</v>
       </c>
       <c r="AQ9" s="14">
-        <f t="shared" si="30"/>
-        <v>21387.741600000001</v>
+        <f t="shared" si="32"/>
+        <v>18195.466250000041</v>
       </c>
       <c r="AR9" s="14">
-        <f t="shared" si="30"/>
-        <v>21601.619015999997</v>
+        <f t="shared" si="32"/>
+        <v>21433.521164999991</v>
       </c>
       <c r="AS9" s="14">
-        <f t="shared" si="30"/>
-        <v>21817.635206159997</v>
+        <f t="shared" si="32"/>
+        <v>21647.856376650001</v>
       </c>
       <c r="AT9" s="14">
-        <f t="shared" si="30"/>
-        <v>22035.811558221598</v>
+        <f t="shared" si="32"/>
+        <v>21864.334940416502</v>
       </c>
       <c r="AU9" s="14">
-        <f t="shared" si="30"/>
-        <v>22256.169673803815</v>
+        <f t="shared" si="32"/>
+        <v>22082.978289820661</v>
       </c>
       <c r="AV9" s="14">
-        <f t="shared" si="30"/>
-        <v>22478.731370541856</v>
+        <f t="shared" si="32"/>
+        <v>22303.808072718868</v>
       </c>
       <c r="AW9" s="14">
-        <f t="shared" ref="AW9:BA9" si="31">AW5-AW6-AW7-AW8</f>
-        <v>22703.518684247265</v>
+        <f t="shared" ref="AW9:BA9" si="33">AW5-AW6-AW7-AW8</f>
+        <v>22526.846153446066</v>
       </c>
       <c r="AX9" s="14">
-        <f t="shared" si="31"/>
-        <v>22930.553871089738</v>
+        <f t="shared" si="33"/>
+        <v>22752.114614980532</v>
       </c>
       <c r="AY9" s="14">
-        <f t="shared" si="31"/>
-        <v>23159.859409800647</v>
+        <f t="shared" si="33"/>
+        <v>22979.635761130328</v>
       </c>
       <c r="AZ9" s="14">
-        <f t="shared" si="31"/>
-        <v>23391.458003898646</v>
+        <f t="shared" si="33"/>
+        <v>23209.432118741632</v>
       </c>
       <c r="BA9" s="14">
-        <f t="shared" si="31"/>
-        <v>23625.372583937635</v>
+        <f t="shared" si="33"/>
+        <v>23441.526439929046</v>
       </c>
     </row>
     <row r="10" spans="2:158" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3482,10 +3582,18 @@
         <f>AP10-AC10-AB10-AA10</f>
         <v>1872</v>
       </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
+      <c r="AE10" s="6">
+        <v>-236</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>500</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>500</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>500</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="6">
         <f>SUM(C10:F10)</f>
@@ -3512,48 +3620,48 @@
         <v>2255</v>
       </c>
       <c r="AQ10" s="6">
-        <f t="shared" ref="AQ10:AV10" si="32">AP10*1.01</f>
-        <v>2277.5500000000002</v>
+        <f>SUM(AE10:AH10)</f>
+        <v>1264</v>
       </c>
       <c r="AR10" s="6">
-        <f t="shared" si="32"/>
-        <v>2300.3255000000004</v>
+        <f t="shared" ref="AR10:AV10" si="34">AQ10*1.01</f>
+        <v>1276.6400000000001</v>
       </c>
       <c r="AS10" s="6">
-        <f t="shared" si="32"/>
-        <v>2323.3287550000005</v>
+        <f t="shared" si="34"/>
+        <v>1289.4064000000001</v>
       </c>
       <c r="AT10" s="6">
-        <f t="shared" si="32"/>
-        <v>2346.5620425500006</v>
+        <f t="shared" si="34"/>
+        <v>1302.3004640000001</v>
       </c>
       <c r="AU10" s="6">
-        <f t="shared" si="32"/>
-        <v>2370.0276629755008</v>
+        <f t="shared" si="34"/>
+        <v>1315.3234686400001</v>
       </c>
       <c r="AV10" s="6">
-        <f t="shared" si="32"/>
-        <v>2393.7279396052559</v>
+        <f t="shared" si="34"/>
+        <v>1328.4767033264002</v>
       </c>
       <c r="AW10" s="6">
-        <f t="shared" ref="AW10" si="33">AV10*1.01</f>
-        <v>2417.6652190013083</v>
+        <f t="shared" ref="AW10" si="35">AV10*1.01</f>
+        <v>1341.7614703596641</v>
       </c>
       <c r="AX10" s="6">
-        <f t="shared" ref="AX10" si="34">AW10*1.01</f>
-        <v>2441.8418711913214</v>
+        <f t="shared" ref="AX10" si="36">AW10*1.01</f>
+        <v>1355.1790850632608</v>
       </c>
       <c r="AY10" s="6">
-        <f t="shared" ref="AY10" si="35">AX10*1.01</f>
-        <v>2466.2602899032345</v>
+        <f t="shared" ref="AY10" si="37">AX10*1.01</f>
+        <v>1368.7308759138934</v>
       </c>
       <c r="AZ10" s="6">
-        <f t="shared" ref="AZ10" si="36">AY10*1.01</f>
-        <v>2490.9228928022667</v>
+        <f t="shared" ref="AZ10" si="38">AY10*1.01</f>
+        <v>1382.4181846730323</v>
       </c>
       <c r="BA10" s="6">
-        <f t="shared" ref="BA10" si="37">AZ10*1.01</f>
-        <v>2515.8321217302896</v>
+        <f t="shared" ref="BA10" si="39">AZ10*1.01</f>
+        <v>1396.2423665197628</v>
       </c>
     </row>
     <row r="11" spans="2:158" x14ac:dyDescent="0.3">
@@ -3561,121 +3669,133 @@
         <v>18</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" ref="C11:Q11" si="38">C9-C10</f>
+        <f t="shared" ref="C11:Q11" si="40">C9-C10</f>
         <v>4478</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4496</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3546</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3123</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4071</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5486</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5081</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3718</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>682</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-2034</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3606</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9412</v>
       </c>
       <c r="O11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4464</v>
       </c>
       <c r="P11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6692</v>
       </c>
       <c r="Q11" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3080</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" ref="R11" si="39">R9-R10</f>
+        <f t="shared" ref="R11" si="41">R9-R10</f>
         <v>5890</v>
       </c>
       <c r="S11" s="14">
-        <f t="shared" ref="S11:T11" si="40">S9-S10</f>
+        <f t="shared" ref="S11:T11" si="42">S9-S10</f>
         <v>8896</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5139</v>
       </c>
       <c r="U11" s="14">
-        <f t="shared" ref="U11:V11" si="41">U9-U10</f>
+        <f t="shared" ref="U11:V11" si="43">U9-U10</f>
         <v>2936</v>
       </c>
       <c r="V11" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5072</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" ref="W11:X11" si="42">W9-W10</f>
+        <f t="shared" ref="W11:X11" si="44">W9-W10</f>
         <v>6452</v>
       </c>
       <c r="X11" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5446</v>
       </c>
       <c r="Y11" s="14">
-        <f t="shared" ref="Y11" si="43">Y9-Y10</f>
+        <f t="shared" ref="Y11" si="45">Y9-Y10</f>
         <v>5802</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" ref="Z11" si="44">Z9-Z10</f>
+        <f t="shared" ref="Z11" si="46">Z9-Z10</f>
         <v>5494</v>
       </c>
       <c r="AA11" s="14">
-        <f t="shared" ref="AA11:AD11" si="45">AA9-AA10</f>
+        <f t="shared" ref="AA11:AD11" si="47">AA9-AA10</f>
         <v>5181</v>
       </c>
       <c r="AB11" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4986</v>
       </c>
       <c r="AC11" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2356</v>
       </c>
       <c r="AD11" s="14">
-        <f t="shared" si="45"/>
-        <v>3796.8199999999997</v>
-      </c>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
+        <f t="shared" si="47"/>
+        <v>4282</v>
+      </c>
+      <c r="AE11" s="14">
+        <f t="shared" ref="AE11:AH11" si="48">AE9-AE10</f>
+        <v>3110</v>
+      </c>
+      <c r="AF11" s="14">
+        <f t="shared" si="48"/>
+        <v>4612.9292499999992</v>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="48"/>
+        <v>3848.3946000000005</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="48"/>
+        <v>5360.1423999999988</v>
+      </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="14">
         <f>AJ9-AJ10</f>
@@ -3694,60 +3814,60 @@
         <v>20126</v>
       </c>
       <c r="AN11" s="14">
-        <f t="shared" ref="AN11:AV11" si="46">AN9-AN10</f>
+        <f t="shared" ref="AN11:AV11" si="49">AN9-AN10</f>
         <v>22043</v>
       </c>
       <c r="AO11" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>23194</v>
       </c>
       <c r="AP11" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>16805</v>
       </c>
       <c r="AQ11" s="14">
-        <f t="shared" si="46"/>
-        <v>19110.191600000002</v>
+        <f t="shared" si="49"/>
+        <v>16931.466250000041</v>
       </c>
       <c r="AR11" s="14">
-        <f t="shared" si="46"/>
-        <v>19301.293515999998</v>
+        <f t="shared" si="49"/>
+        <v>20156.881164999992</v>
       </c>
       <c r="AS11" s="14">
-        <f t="shared" si="46"/>
-        <v>19494.306451159995</v>
+        <f t="shared" si="49"/>
+        <v>20358.449976650001</v>
       </c>
       <c r="AT11" s="14">
-        <f t="shared" si="46"/>
-        <v>19689.249515671596</v>
+        <f t="shared" si="49"/>
+        <v>20562.034476416502</v>
       </c>
       <c r="AU11" s="14">
-        <f t="shared" si="46"/>
-        <v>19886.142010828313</v>
+        <f t="shared" si="49"/>
+        <v>20767.654821180662</v>
       </c>
       <c r="AV11" s="14">
-        <f t="shared" si="46"/>
-        <v>20085.003430936602</v>
+        <f t="shared" si="49"/>
+        <v>20975.331369392468</v>
       </c>
       <c r="AW11" s="14">
-        <f t="shared" ref="AW11:BA11" si="47">AW9-AW10</f>
-        <v>20285.853465245957</v>
+        <f t="shared" ref="AW11:BA11" si="50">AW9-AW10</f>
+        <v>21185.084683086403</v>
       </c>
       <c r="AX11" s="14">
-        <f t="shared" si="47"/>
-        <v>20488.711999898416</v>
+        <f t="shared" si="50"/>
+        <v>21396.935529917271</v>
       </c>
       <c r="AY11" s="14">
-        <f t="shared" si="47"/>
-        <v>20693.599119897412</v>
+        <f t="shared" si="50"/>
+        <v>21610.904885216434</v>
       </c>
       <c r="AZ11" s="14">
-        <f t="shared" si="47"/>
-        <v>20900.535111096378</v>
+        <f t="shared" si="50"/>
+        <v>21827.0139340686</v>
       </c>
       <c r="BA11" s="14">
-        <f t="shared" si="47"/>
-        <v>21109.540462207344</v>
+        <f t="shared" si="50"/>
+        <v>22045.284073409282</v>
       </c>
     </row>
     <row r="12" spans="2:158" x14ac:dyDescent="0.3">
@@ -3842,13 +3962,24 @@
         <v>780</v>
       </c>
       <c r="AD12" s="6">
-        <f t="shared" ref="AD12:AD13" si="48">AP12-AC12-AB12-AA12</f>
+        <f t="shared" ref="AD12:AD13" si="51">AP12-AC12-AB12-AA12</f>
         <v>805</v>
       </c>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
+      <c r="AE12" s="6">
+        <v>923</v>
+      </c>
+      <c r="AF12" s="6">
+        <f>AF11*0.25</f>
+        <v>1153.2323124999998</v>
+      </c>
+      <c r="AG12" s="6">
+        <f t="shared" ref="AG12:AH12" si="52">AG11*0.25</f>
+        <v>962.09865000000013</v>
+      </c>
+      <c r="AH12" s="6">
+        <f t="shared" si="52"/>
+        <v>1340.0355999999997</v>
+      </c>
       <c r="AJ12" s="6">
         <f>SUM(C12:F12)</f>
         <v>3489</v>
@@ -3873,48 +4004,48 @@
         <v>4411</v>
       </c>
       <c r="AQ12" s="6">
-        <f t="shared" ref="AQ12:AV12" si="49">AQ11*0.24</f>
-        <v>4586.445984</v>
+        <f>SUM(AE12:AH12)</f>
+        <v>4378.3665624999994</v>
       </c>
       <c r="AR12" s="6">
-        <f t="shared" si="49"/>
-        <v>4632.3104438399996</v>
+        <f t="shared" ref="AR12:AV12" si="53">AR11*0.24</f>
+        <v>4837.6514795999974</v>
       </c>
       <c r="AS12" s="6">
-        <f t="shared" si="49"/>
-        <v>4678.6335482783988</v>
+        <f t="shared" si="53"/>
+        <v>4886.0279943960004</v>
       </c>
       <c r="AT12" s="6">
-        <f t="shared" si="49"/>
-        <v>4725.419883761183</v>
+        <f t="shared" si="53"/>
+        <v>4934.8882743399599</v>
       </c>
       <c r="AU12" s="6">
-        <f t="shared" si="49"/>
-        <v>4772.6740825987945</v>
+        <f t="shared" si="53"/>
+        <v>4984.2371570833584</v>
       </c>
       <c r="AV12" s="6">
-        <f t="shared" si="49"/>
-        <v>4820.400823424784</v>
+        <f t="shared" si="53"/>
+        <v>5034.0795286541925</v>
       </c>
       <c r="AW12" s="6">
-        <f t="shared" ref="AW12:BA12" si="50">AW11*0.24</f>
-        <v>4868.6048316590295</v>
+        <f t="shared" ref="AW12:BA12" si="54">AW11*0.24</f>
+        <v>5084.4203239407361</v>
       </c>
       <c r="AX12" s="6">
-        <f t="shared" si="50"/>
-        <v>4917.2908799756196</v>
+        <f t="shared" si="54"/>
+        <v>5135.2645271801448</v>
       </c>
       <c r="AY12" s="6">
-        <f t="shared" si="50"/>
-        <v>4966.4637887753788</v>
+        <f t="shared" si="54"/>
+        <v>5186.6171724519436</v>
       </c>
       <c r="AZ12" s="6">
-        <f t="shared" si="50"/>
-        <v>5016.128426663131</v>
+        <f t="shared" si="54"/>
+        <v>5238.483344176464</v>
       </c>
       <c r="BA12" s="6">
-        <f t="shared" si="50"/>
-        <v>5066.2897109297619</v>
+        <f t="shared" si="54"/>
+        <v>5290.8681776182275</v>
       </c>
     </row>
     <row r="13" spans="2:158" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4029,13 +4160,25 @@
         <v>365</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>345</v>
       </c>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
+      <c r="AE13" s="6">
+        <f>204+151</f>
+        <v>355</v>
+      </c>
+      <c r="AF13" s="6">
+        <f>AF11*0.08</f>
+        <v>369.03433999999993</v>
+      </c>
+      <c r="AG13" s="6">
+        <f t="shared" ref="AG13:AH13" si="55">AG11*0.08</f>
+        <v>307.87156800000002</v>
+      </c>
+      <c r="AH13" s="6">
+        <f t="shared" si="55"/>
+        <v>428.8113919999999</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="6">
         <f>SUM(C13:F13)</f>
@@ -4066,48 +4209,48 @@
         <v>1673</v>
       </c>
       <c r="AQ13" s="6">
-        <f>AQ3*0.005</f>
-        <v>1639.5128</v>
+        <f>SUM(AE13:AH13)</f>
+        <v>1460.7172999999998</v>
       </c>
       <c r="AR13" s="6">
-        <f t="shared" ref="AR13:BA13" si="51">AR3*0.005</f>
-        <v>1655.9079280000001</v>
+        <f t="shared" ref="AR13:BA13" si="56">AR3*0.005</f>
+        <v>1662.6869975</v>
       </c>
       <c r="AS13" s="6">
-        <f t="shared" si="51"/>
-        <v>1672.46700728</v>
+        <f t="shared" si="56"/>
+        <v>1679.3138674750003</v>
       </c>
       <c r="AT13" s="6">
-        <f t="shared" si="51"/>
-        <v>1689.1916773528001</v>
+        <f t="shared" si="56"/>
+        <v>1696.1070061497501</v>
       </c>
       <c r="AU13" s="6">
-        <f t="shared" si="51"/>
-        <v>1706.0835941263281</v>
+        <f t="shared" si="56"/>
+        <v>1713.0680762112477</v>
       </c>
       <c r="AV13" s="6">
-        <f t="shared" si="51"/>
-        <v>1723.1444300675914</v>
+        <f t="shared" si="56"/>
+        <v>1730.1987569733601</v>
       </c>
       <c r="AW13" s="6">
-        <f t="shared" si="51"/>
-        <v>1740.3758743682672</v>
+        <f t="shared" si="56"/>
+        <v>1747.500744543094</v>
       </c>
       <c r="AX13" s="6">
-        <f t="shared" si="51"/>
-        <v>1757.77963311195</v>
+        <f t="shared" si="56"/>
+        <v>1764.975751988525</v>
       </c>
       <c r="AY13" s="6">
-        <f t="shared" si="51"/>
-        <v>1775.3574294430696</v>
+        <f t="shared" si="56"/>
+        <v>1782.6255095084102</v>
       </c>
       <c r="AZ13" s="6">
-        <f t="shared" si="51"/>
-        <v>1793.1110037375004</v>
+        <f t="shared" si="56"/>
+        <v>1800.4517646034944</v>
       </c>
       <c r="BA13" s="6">
-        <f t="shared" si="51"/>
-        <v>1811.0421137748751</v>
+        <f t="shared" si="56"/>
+        <v>1818.4562822495293</v>
       </c>
     </row>
     <row r="14" spans="2:158" x14ac:dyDescent="0.3">
@@ -4115,121 +4258,133 @@
         <v>20</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:Q14" si="52">C11-C12-C13</f>
+        <f t="shared" ref="C14:Q14" si="57">C11-C12-C13</f>
         <v>3222</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>3232</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2668</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2706</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2912</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>3963</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>3790</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2682</v>
       </c>
       <c r="K14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>406</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-1607</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2582</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>6952</v>
       </c>
       <c r="O14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>3244</v>
       </c>
       <c r="P14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>4862</v>
       </c>
       <c r="Q14" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2762</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" ref="R14" si="53">R11-R12-R13</f>
+        <f t="shared" ref="R14" si="58">R11-R12-R13</f>
         <v>3975</v>
       </c>
       <c r="S14" s="14">
-        <f t="shared" ref="S14:T14" si="54">S11-S12-S13</f>
+        <f t="shared" ref="S14:T14" si="59">S11-S12-S13</f>
         <v>6557</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>3740</v>
       </c>
       <c r="U14" s="14">
-        <f t="shared" ref="U14:V14" si="55">U11-U12-U13</f>
+        <f t="shared" ref="U14:V14" si="60">U11-U12-U13</f>
         <v>1957</v>
       </c>
       <c r="V14" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2612</v>
       </c>
       <c r="W14" s="14">
-        <f t="shared" ref="W14:X14" si="56">W11-W12-W13</f>
+        <f t="shared" ref="W14:X14" si="61">W11-W12-W13</f>
         <v>4209</v>
       </c>
       <c r="X14" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>3249</v>
       </c>
       <c r="Y14" s="14">
-        <f t="shared" ref="Y14" si="57">Y11-Y12-Y13</f>
+        <f t="shared" ref="Y14" si="62">Y11-Y12-Y13</f>
         <v>3890</v>
       </c>
       <c r="Z14" s="14">
-        <f t="shared" ref="Z14" si="58">Z11-Z12-Z13</f>
+        <f t="shared" ref="Z14" si="63">Z11-Z12-Z13</f>
         <v>4665</v>
       </c>
       <c r="AA14" s="14">
-        <f t="shared" ref="AA14:AD14" si="59">AA11-AA12-AA13</f>
+        <f t="shared" ref="AA14:AD14" si="64">AA11-AA12-AA13</f>
         <v>3266</v>
       </c>
       <c r="AB14" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>3112</v>
       </c>
       <c r="AC14" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1211</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="59"/>
-        <v>2646.8199999999997</v>
-      </c>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
+        <f t="shared" si="64"/>
+        <v>3132</v>
+      </c>
+      <c r="AE14" s="14">
+        <f t="shared" ref="AE14:AH14" si="65">AE11-AE12-AE13</f>
+        <v>1832</v>
+      </c>
+      <c r="AF14" s="14">
+        <f t="shared" si="65"/>
+        <v>3090.6625974999997</v>
+      </c>
+      <c r="AG14" s="14">
+        <f t="shared" si="65"/>
+        <v>2578.4243820000006</v>
+      </c>
+      <c r="AH14" s="14">
+        <f t="shared" si="65"/>
+        <v>3591.295407999999</v>
+      </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="14">
         <f>AJ11-AJ12-AJ13</f>
@@ -4248,480 +4403,480 @@
         <v>14843</v>
       </c>
       <c r="AN14" s="14">
-        <f t="shared" ref="AN14:AV14" si="60">AN11-AN12-AN13</f>
+        <f t="shared" ref="AN14:AV14" si="66">AN11-AN12-AN13</f>
         <v>14866</v>
       </c>
       <c r="AO14" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>16013</v>
       </c>
       <c r="AP14" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>10721</v>
       </c>
       <c r="AQ14" s="14">
-        <f t="shared" si="60"/>
-        <v>12884.232816000002</v>
+        <f t="shared" si="66"/>
+        <v>11092.382387500042</v>
       </c>
       <c r="AR14" s="14">
-        <f t="shared" si="60"/>
-        <v>13013.075144159997</v>
+        <f t="shared" si="66"/>
+        <v>13656.542687899993</v>
       </c>
       <c r="AS14" s="14">
-        <f t="shared" si="60"/>
-        <v>13143.205895601597</v>
+        <f t="shared" si="66"/>
+        <v>13793.108114778999</v>
       </c>
       <c r="AT14" s="14">
-        <f t="shared" si="60"/>
-        <v>13274.637954557613</v>
+        <f t="shared" si="66"/>
+        <v>13931.039195926793</v>
       </c>
       <c r="AU14" s="14">
-        <f t="shared" si="60"/>
-        <v>13407.38433410319</v>
+        <f t="shared" si="66"/>
+        <v>14070.349587886056</v>
       </c>
       <c r="AV14" s="14">
-        <f t="shared" si="60"/>
-        <v>13541.458177444225</v>
+        <f t="shared" si="66"/>
+        <v>14211.053083764917</v>
       </c>
       <c r="AW14" s="14">
-        <f t="shared" ref="AW14:BA14" si="61">AW11-AW12-AW13</f>
-        <v>13676.872759218661</v>
+        <f t="shared" ref="AW14:BA14" si="67">AW11-AW12-AW13</f>
+        <v>14353.163614602572</v>
       </c>
       <c r="AX14" s="14">
-        <f t="shared" si="61"/>
-        <v>13813.641486810848</v>
+        <f t="shared" si="67"/>
+        <v>14496.695250748602</v>
       </c>
       <c r="AY14" s="14">
-        <f t="shared" si="61"/>
-        <v>13951.777901678965</v>
+        <f t="shared" si="67"/>
+        <v>14641.662203256079</v>
       </c>
       <c r="AZ14" s="14">
-        <f t="shared" si="61"/>
-        <v>14091.295680695748</v>
+        <f t="shared" si="67"/>
+        <v>14788.078825288641</v>
       </c>
       <c r="BA14" s="14">
-        <f t="shared" si="61"/>
-        <v>14232.208637502707</v>
+        <f t="shared" si="67"/>
+        <v>14935.959613541525</v>
       </c>
       <c r="BB14" s="3">
         <f>BA14*(1+$BD$21)</f>
-        <v>14089.88655112768</v>
+        <v>14786.60001740611</v>
       </c>
       <c r="BC14" s="3">
-        <f t="shared" ref="BC14:DN14" si="62">BB14*(1+$BD$21)</f>
-        <v>13948.987685616403</v>
+        <f t="shared" ref="BC14:DN14" si="68">BB14*(1+$BD$21)</f>
+        <v>14638.734017232049</v>
       </c>
       <c r="BD14" s="3">
-        <f t="shared" si="62"/>
-        <v>13809.497808760239</v>
+        <f t="shared" si="68"/>
+        <v>14492.346677059728</v>
       </c>
       <c r="BE14" s="3">
-        <f t="shared" si="62"/>
-        <v>13671.402830672638</v>
+        <f t="shared" si="68"/>
+        <v>14347.423210289131</v>
       </c>
       <c r="BF14" s="3">
-        <f t="shared" si="62"/>
-        <v>13534.688802365912</v>
+        <f t="shared" si="68"/>
+        <v>14203.948978186239</v>
       </c>
       <c r="BG14" s="3">
-        <f t="shared" si="62"/>
-        <v>13399.341914342252</v>
+        <f t="shared" si="68"/>
+        <v>14061.909488404377</v>
       </c>
       <c r="BH14" s="3">
-        <f t="shared" si="62"/>
-        <v>13265.34849519883</v>
+        <f t="shared" si="68"/>
+        <v>13921.290393520334</v>
       </c>
       <c r="BI14" s="3">
-        <f t="shared" si="62"/>
-        <v>13132.695010246842</v>
+        <f t="shared" si="68"/>
+        <v>13782.07748958513</v>
       </c>
       <c r="BJ14" s="3">
-        <f t="shared" si="62"/>
-        <v>13001.368060144374</v>
+        <f t="shared" si="68"/>
+        <v>13644.256714689278</v>
       </c>
       <c r="BK14" s="3">
-        <f t="shared" si="62"/>
-        <v>12871.35437954293</v>
+        <f t="shared" si="68"/>
+        <v>13507.814147542385</v>
       </c>
       <c r="BL14" s="3">
-        <f t="shared" si="62"/>
-        <v>12742.640835747501</v>
+        <f t="shared" si="68"/>
+        <v>13372.736006066962</v>
       </c>
       <c r="BM14" s="3">
-        <f t="shared" si="62"/>
-        <v>12615.214427390027</v>
+        <f t="shared" si="68"/>
+        <v>13239.008646006292</v>
       </c>
       <c r="BN14" s="3">
-        <f t="shared" si="62"/>
-        <v>12489.062283116125</v>
+        <f t="shared" si="68"/>
+        <v>13106.618559546228</v>
       </c>
       <c r="BO14" s="3">
-        <f t="shared" si="62"/>
-        <v>12364.171660284965</v>
+        <f t="shared" si="68"/>
+        <v>12975.552373950766</v>
       </c>
       <c r="BP14" s="3">
-        <f t="shared" si="62"/>
-        <v>12240.529943682115</v>
+        <f t="shared" si="68"/>
+        <v>12845.796850211258</v>
       </c>
       <c r="BQ14" s="3">
-        <f t="shared" si="62"/>
-        <v>12118.124644245294</v>
+        <f t="shared" si="68"/>
+        <v>12717.338881709145</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="62"/>
-        <v>11996.943397802841</v>
+        <f t="shared" si="68"/>
+        <v>12590.165492892054</v>
       </c>
       <c r="BS14" s="3">
-        <f t="shared" si="62"/>
-        <v>11876.973963824812</v>
+        <f t="shared" si="68"/>
+        <v>12464.263837963133</v>
       </c>
       <c r="BT14" s="3">
-        <f t="shared" si="62"/>
-        <v>11758.204224186564</v>
+        <f t="shared" si="68"/>
+        <v>12339.621199583502</v>
       </c>
       <c r="BU14" s="3">
-        <f t="shared" si="62"/>
-        <v>11640.622181944698</v>
+        <f t="shared" si="68"/>
+        <v>12216.224987587666</v>
       </c>
       <c r="BV14" s="3">
-        <f t="shared" si="62"/>
-        <v>11524.215960125252</v>
+        <f t="shared" si="68"/>
+        <v>12094.062737711789</v>
       </c>
       <c r="BW14" s="3">
-        <f t="shared" si="62"/>
-        <v>11408.973800524</v>
+        <f t="shared" si="68"/>
+        <v>11973.122110334671</v>
       </c>
       <c r="BX14" s="3">
-        <f t="shared" si="62"/>
-        <v>11294.88406251876</v>
+        <f t="shared" si="68"/>
+        <v>11853.390889231323</v>
       </c>
       <c r="BY14" s="3">
-        <f t="shared" si="62"/>
-        <v>11181.935221893573</v>
+        <f t="shared" si="68"/>
+        <v>11734.856980339009</v>
       </c>
       <c r="BZ14" s="3">
-        <f t="shared" si="62"/>
-        <v>11070.115869674637</v>
+        <f t="shared" si="68"/>
+        <v>11617.508410535618</v>
       </c>
       <c r="CA14" s="3">
-        <f t="shared" si="62"/>
-        <v>10959.41471097789</v>
+        <f t="shared" si="68"/>
+        <v>11501.333326430262</v>
       </c>
       <c r="CB14" s="3">
-        <f t="shared" si="62"/>
-        <v>10849.82056386811</v>
+        <f t="shared" si="68"/>
+        <v>11386.319993165958</v>
       </c>
       <c r="CC14" s="3">
-        <f t="shared" si="62"/>
-        <v>10741.322358229429</v>
+        <f t="shared" si="68"/>
+        <v>11272.456793234298</v>
       </c>
       <c r="CD14" s="3">
-        <f t="shared" si="62"/>
-        <v>10633.909134647134</v>
+        <f t="shared" si="68"/>
+        <v>11159.732225301956</v>
       </c>
       <c r="CE14" s="3">
-        <f t="shared" si="62"/>
-        <v>10527.570043300662</v>
+        <f t="shared" si="68"/>
+        <v>11048.134903048936</v>
       </c>
       <c r="CF14" s="3">
-        <f t="shared" si="62"/>
-        <v>10422.294342867655</v>
+        <f t="shared" si="68"/>
+        <v>10937.653554018447</v>
       </c>
       <c r="CG14" s="3">
-        <f t="shared" si="62"/>
-        <v>10318.071399438979</v>
+        <f t="shared" si="68"/>
+        <v>10828.277018478262</v>
       </c>
       <c r="CH14" s="3">
-        <f t="shared" si="62"/>
-        <v>10214.890685444589</v>
+        <f t="shared" si="68"/>
+        <v>10719.99424829348</v>
       </c>
       <c r="CI14" s="3">
-        <f t="shared" si="62"/>
-        <v>10112.741778590143</v>
+        <f t="shared" si="68"/>
+        <v>10612.794305810545</v>
       </c>
       <c r="CJ14" s="3">
-        <f t="shared" si="62"/>
-        <v>10011.614360804242</v>
+        <f t="shared" si="68"/>
+        <v>10506.666362752439</v>
       </c>
       <c r="CK14" s="3">
-        <f t="shared" si="62"/>
-        <v>9911.4982171962001</v>
+        <f t="shared" si="68"/>
+        <v>10401.599699124916</v>
       </c>
       <c r="CL14" s="3">
-        <f t="shared" si="62"/>
-        <v>9812.3832350242374</v>
+        <f t="shared" si="68"/>
+        <v>10297.583702133667</v>
       </c>
       <c r="CM14" s="3">
-        <f t="shared" si="62"/>
-        <v>9714.2594026739953</v>
+        <f t="shared" si="68"/>
+        <v>10194.60786511233</v>
       </c>
       <c r="CN14" s="3">
-        <f t="shared" si="62"/>
-        <v>9617.1168086472553</v>
+        <f t="shared" si="68"/>
+        <v>10092.661786461207</v>
       </c>
       <c r="CO14" s="3">
-        <f t="shared" si="62"/>
-        <v>9520.9456405607834</v>
+        <f t="shared" si="68"/>
+        <v>9991.735168596595</v>
       </c>
       <c r="CP14" s="3">
-        <f t="shared" si="62"/>
-        <v>9425.7361841551756</v>
+        <f t="shared" si="68"/>
+        <v>9891.8178169106286</v>
       </c>
       <c r="CQ14" s="3">
-        <f t="shared" si="62"/>
-        <v>9331.4788223136238</v>
+        <f t="shared" si="68"/>
+        <v>9792.8996387415227</v>
       </c>
       <c r="CR14" s="3">
-        <f t="shared" si="62"/>
-        <v>9238.1640340904869</v>
+        <f t="shared" si="68"/>
+        <v>9694.9706423541065</v>
       </c>
       <c r="CS14" s="3">
-        <f t="shared" si="62"/>
-        <v>9145.7823937495814</v>
+        <f t="shared" si="68"/>
+        <v>9598.0209359305645</v>
       </c>
       <c r="CT14" s="3">
-        <f t="shared" si="62"/>
-        <v>9054.3245698120863</v>
+        <f t="shared" si="68"/>
+        <v>9502.0407265712583</v>
       </c>
       <c r="CU14" s="3">
-        <f t="shared" si="62"/>
-        <v>8963.7813241139647</v>
+        <f t="shared" si="68"/>
+        <v>9407.0203193055459</v>
       </c>
       <c r="CV14" s="3">
-        <f t="shared" si="62"/>
-        <v>8874.1435108728256</v>
+        <f t="shared" si="68"/>
+        <v>9312.9501161124899</v>
       </c>
       <c r="CW14" s="3">
-        <f t="shared" si="62"/>
-        <v>8785.4020757640974</v>
+        <f t="shared" si="68"/>
+        <v>9219.8206149513644</v>
       </c>
       <c r="CX14" s="3">
-        <f t="shared" si="62"/>
-        <v>8697.5480550064567</v>
+        <f t="shared" si="68"/>
+        <v>9127.6224088018498</v>
       </c>
       <c r="CY14" s="3">
-        <f t="shared" si="62"/>
-        <v>8610.5725744563915</v>
+        <f t="shared" si="68"/>
+        <v>9036.3461847138315</v>
       </c>
       <c r="CZ14" s="3">
-        <f t="shared" si="62"/>
-        <v>8524.466848711827</v>
+        <f t="shared" si="68"/>
+        <v>8945.9827228666927</v>
       </c>
       <c r="DA14" s="3">
-        <f t="shared" si="62"/>
-        <v>8439.2221802247095</v>
+        <f t="shared" si="68"/>
+        <v>8856.5228956380251</v>
       </c>
       <c r="DB14" s="3">
-        <f t="shared" si="62"/>
-        <v>8354.8299584224624</v>
+        <f t="shared" si="68"/>
+        <v>8767.9576666816447</v>
       </c>
       <c r="DC14" s="3">
-        <f t="shared" si="62"/>
-        <v>8271.2816588382375</v>
+        <f t="shared" si="68"/>
+        <v>8680.2780900148282</v>
       </c>
       <c r="DD14" s="3">
-        <f t="shared" si="62"/>
-        <v>8188.5688422498552</v>
+        <f t="shared" si="68"/>
+        <v>8593.4753091146795</v>
       </c>
       <c r="DE14" s="3">
-        <f t="shared" si="62"/>
-        <v>8106.6831538273564</v>
+        <f t="shared" si="68"/>
+        <v>8507.5405560235322</v>
       </c>
       <c r="DF14" s="3">
-        <f t="shared" si="62"/>
-        <v>8025.6163222890827</v>
+        <f t="shared" si="68"/>
+        <v>8422.4651504632966</v>
       </c>
       <c r="DG14" s="3">
-        <f t="shared" si="62"/>
-        <v>7945.360159066192</v>
+        <f t="shared" si="68"/>
+        <v>8338.240498958663</v>
       </c>
       <c r="DH14" s="3">
-        <f t="shared" si="62"/>
-        <v>7865.9065574755296</v>
+        <f t="shared" si="68"/>
+        <v>8254.8580939690764</v>
       </c>
       <c r="DI14" s="3">
-        <f t="shared" si="62"/>
-        <v>7787.2474919007745</v>
+        <f t="shared" si="68"/>
+        <v>8172.3095130293859</v>
       </c>
       <c r="DJ14" s="3">
-        <f t="shared" si="62"/>
-        <v>7709.3750169817667</v>
+        <f t="shared" si="68"/>
+        <v>8090.5864178990923</v>
       </c>
       <c r="DK14" s="3">
-        <f t="shared" si="62"/>
-        <v>7632.2812668119486</v>
+        <f t="shared" si="68"/>
+        <v>8009.6805537201017</v>
       </c>
       <c r="DL14" s="3">
-        <f t="shared" si="62"/>
-        <v>7555.9584541438289</v>
+        <f t="shared" si="68"/>
+        <v>7929.5837481829003</v>
       </c>
       <c r="DM14" s="3">
-        <f t="shared" si="62"/>
-        <v>7480.3988696023907</v>
+        <f t="shared" si="68"/>
+        <v>7850.2879107010713</v>
       </c>
       <c r="DN14" s="3">
-        <f t="shared" si="62"/>
-        <v>7405.5948809063666</v>
+        <f t="shared" si="68"/>
+        <v>7771.7850315940605</v>
       </c>
       <c r="DO14" s="3">
-        <f t="shared" ref="DO14:FB14" si="63">DN14*(1+$BD$21)</f>
-        <v>7331.5389320973027</v>
+        <f t="shared" ref="DO14:FB14" si="69">DN14*(1+$BD$21)</f>
+        <v>7694.0671812781202</v>
       </c>
       <c r="DP14" s="3">
-        <f t="shared" si="63"/>
-        <v>7258.2235427763299</v>
+        <f t="shared" si="69"/>
+        <v>7617.126509465339</v>
       </c>
       <c r="DQ14" s="3">
-        <f t="shared" si="63"/>
-        <v>7185.6413073485664</v>
+        <f t="shared" si="69"/>
+        <v>7540.9552443706853</v>
       </c>
       <c r="DR14" s="3">
-        <f t="shared" si="63"/>
-        <v>7113.7848942750807</v>
+        <f t="shared" si="69"/>
+        <v>7465.5456919269782</v>
       </c>
       <c r="DS14" s="3">
-        <f t="shared" si="63"/>
-        <v>7042.64704533233</v>
+        <f t="shared" si="69"/>
+        <v>7390.8902350077087</v>
       </c>
       <c r="DT14" s="3">
-        <f t="shared" si="63"/>
-        <v>6972.2205748790066</v>
+        <f t="shared" si="69"/>
+        <v>7316.9813326576314</v>
       </c>
       <c r="DU14" s="3">
-        <f t="shared" si="63"/>
-        <v>6902.4983691302168</v>
+        <f t="shared" si="69"/>
+        <v>7243.811519331055</v>
       </c>
       <c r="DV14" s="3">
-        <f t="shared" si="63"/>
-        <v>6833.4733854389142</v>
+        <f t="shared" si="69"/>
+        <v>7171.3734041377447</v>
       </c>
       <c r="DW14" s="3">
-        <f t="shared" si="63"/>
-        <v>6765.1386515845252</v>
+        <f t="shared" si="69"/>
+        <v>7099.6596700963673</v>
       </c>
       <c r="DX14" s="3">
-        <f t="shared" si="63"/>
-        <v>6697.4872650686802</v>
+        <f t="shared" si="69"/>
+        <v>7028.6630733954034</v>
       </c>
       <c r="DY14" s="3">
-        <f t="shared" si="63"/>
-        <v>6630.5123924179934</v>
+        <f t="shared" si="69"/>
+        <v>6958.3764426614498</v>
       </c>
       <c r="DZ14" s="3">
-        <f t="shared" si="63"/>
-        <v>6564.207268493813</v>
+        <f t="shared" si="69"/>
+        <v>6888.792678234835</v>
       </c>
       <c r="EA14" s="3">
-        <f t="shared" si="63"/>
-        <v>6498.5651958088747</v>
+        <f t="shared" si="69"/>
+        <v>6819.9047514524864</v>
       </c>
       <c r="EB14" s="3">
-        <f t="shared" si="63"/>
-        <v>6433.5795438507857</v>
+        <f t="shared" si="69"/>
+        <v>6751.7057039379615</v>
       </c>
       <c r="EC14" s="3">
-        <f t="shared" si="63"/>
-        <v>6369.2437484122775</v>
+        <f t="shared" si="69"/>
+        <v>6684.1886468985822</v>
       </c>
       <c r="ED14" s="3">
-        <f t="shared" si="63"/>
-        <v>6305.5513109281546</v>
+        <f t="shared" si="69"/>
+        <v>6617.3467604295965</v>
       </c>
       <c r="EE14" s="3">
-        <f t="shared" si="63"/>
-        <v>6242.4957978188731</v>
+        <f t="shared" si="69"/>
+        <v>6551.1732928253005</v>
       </c>
       <c r="EF14" s="3">
-        <f t="shared" si="63"/>
-        <v>6180.0708398406841</v>
+        <f t="shared" si="69"/>
+        <v>6485.6615598970475</v>
       </c>
       <c r="EG14" s="3">
-        <f t="shared" si="63"/>
-        <v>6118.2701314422775</v>
+        <f t="shared" si="69"/>
+        <v>6420.8049442980773</v>
       </c>
       <c r="EH14" s="3">
-        <f t="shared" si="63"/>
-        <v>6057.0874301278545</v>
+        <f t="shared" si="69"/>
+        <v>6356.5968948550963</v>
       </c>
       <c r="EI14" s="3">
-        <f t="shared" si="63"/>
-        <v>5996.5165558265762</v>
+        <f t="shared" si="69"/>
+        <v>6293.0309259065452</v>
       </c>
       <c r="EJ14" s="3">
-        <f t="shared" si="63"/>
-        <v>5936.5513902683106</v>
+        <f t="shared" si="69"/>
+        <v>6230.1006166474799</v>
       </c>
       <c r="EK14" s="3">
-        <f t="shared" si="63"/>
-        <v>5877.1858763656273</v>
+        <f t="shared" si="69"/>
+        <v>6167.7996104810054</v>
       </c>
       <c r="EL14" s="3">
-        <f t="shared" si="63"/>
-        <v>5818.414017601971</v>
+        <f t="shared" si="69"/>
+        <v>6106.1216143761949</v>
       </c>
       <c r="EM14" s="3">
-        <f t="shared" si="63"/>
-        <v>5760.2298774259516</v>
+        <f t="shared" si="69"/>
+        <v>6045.0603982324328</v>
       </c>
       <c r="EN14" s="3">
-        <f t="shared" si="63"/>
-        <v>5702.6275786516917</v>
+        <f t="shared" si="69"/>
+        <v>5984.6097942501083</v>
       </c>
       <c r="EO14" s="3">
-        <f t="shared" si="63"/>
-        <v>5645.6013028651751</v>
+        <f t="shared" si="69"/>
+        <v>5924.7636963076075</v>
       </c>
       <c r="EP14" s="3">
-        <f t="shared" si="63"/>
-        <v>5589.1452898365233</v>
+        <f t="shared" si="69"/>
+        <v>5865.5160593445316</v>
       </c>
       <c r="EQ14" s="3">
-        <f t="shared" si="63"/>
-        <v>5533.2538369381582</v>
+        <f t="shared" si="69"/>
+        <v>5806.8608987510861</v>
       </c>
       <c r="ER14" s="3">
-        <f t="shared" si="63"/>
-        <v>5477.9212985687764</v>
+        <f t="shared" si="69"/>
+        <v>5748.7922897635754</v>
       </c>
       <c r="ES14" s="3">
-        <f t="shared" si="63"/>
-        <v>5423.1420855830884</v>
+        <f t="shared" si="69"/>
+        <v>5691.3043668659393</v>
       </c>
       <c r="ET14" s="3">
-        <f t="shared" si="63"/>
-        <v>5368.9106647272574</v>
+        <f t="shared" si="69"/>
+        <v>5634.3913231972801</v>
       </c>
       <c r="EU14" s="3">
-        <f t="shared" si="63"/>
-        <v>5315.2215580799848</v>
+        <f t="shared" si="69"/>
+        <v>5578.0474099653075</v>
       </c>
       <c r="EV14" s="3">
-        <f t="shared" si="63"/>
-        <v>5262.069342499185</v>
+        <f t="shared" si="69"/>
+        <v>5522.266935865654</v>
       </c>
       <c r="EW14" s="3">
-        <f t="shared" si="63"/>
-        <v>5209.4486490741929</v>
+        <f t="shared" si="69"/>
+        <v>5467.0442665069977</v>
       </c>
       <c r="EX14" s="3">
-        <f t="shared" si="63"/>
-        <v>5157.3541625834505</v>
+        <f t="shared" si="69"/>
+        <v>5412.3738238419273</v>
       </c>
       <c r="EY14" s="3">
-        <f t="shared" si="63"/>
-        <v>5105.7806209576156</v>
+        <f t="shared" si="69"/>
+        <v>5358.2500856035076</v>
       </c>
       <c r="EZ14" s="3">
-        <f t="shared" si="63"/>
-        <v>5054.7228147480391</v>
+        <f t="shared" si="69"/>
+        <v>5304.6675847474726</v>
       </c>
       <c r="FA14" s="3">
-        <f t="shared" si="63"/>
-        <v>5004.1755866005587</v>
+        <f t="shared" si="69"/>
+        <v>5251.6209088999976</v>
       </c>
       <c r="FB14" s="3">
-        <f t="shared" si="63"/>
-        <v>4954.1338307345532</v>
+        <f t="shared" si="69"/>
+        <v>5199.1046998109978</v>
       </c>
     </row>
     <row r="15" spans="2:158" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4812,10 +4967,18 @@
       <c r="AD15" s="6">
         <v>501.3</v>
       </c>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
+      <c r="AE15" s="6">
+        <v>501.3</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>501.3</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>501.3</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>501.3</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="6">
         <v>501.3</v>
@@ -4836,51 +4999,51 @@
         <v>501.3</v>
       </c>
       <c r="AP15" s="6">
-        <f t="shared" ref="AP15:BA15" si="64">295.1+206.2</f>
+        <f t="shared" ref="AP15:BA15" si="70">295.1+206.2</f>
         <v>501.3</v>
       </c>
       <c r="AQ15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AR15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AS15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AT15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AU15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AV15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AW15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AX15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AY15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="AZ15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
       <c r="BA15" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>501.3</v>
       </c>
     </row>
@@ -4889,121 +5052,133 @@
         <v>22</v>
       </c>
       <c r="C16" s="15">
-        <f t="shared" ref="C16:Q16" si="65">C14/C15</f>
+        <f t="shared" ref="C16:Q16" si="71">C14/C15</f>
         <v>6.427289048473968</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>6.4472371833233595</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.3221623778176737</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.3979652902453621</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.8088968681428286</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>7.9054458408138837</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>7.560343107919409</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.3500897666068221</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.80989427488529819</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-3.205665270297227</v>
       </c>
       <c r="M16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.1506084181129062</v>
       </c>
       <c r="N16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>13.867943347297027</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>6.4711749451426286</v>
       </c>
       <c r="P16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>9.6987831637741877</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.5096748454019551</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" ref="R16" si="66">R14/R15</f>
+        <f t="shared" ref="R16" si="72">R14/R15</f>
         <v>7.9293836026331537</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" ref="S16:T16" si="67">S14/S15</f>
+        <f t="shared" ref="S16:T16" si="73">S14/S15</f>
         <v>13.07999202074606</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>7.4606024336724515</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" ref="U16:V16" si="68">U14/U15</f>
+        <f t="shared" ref="U16:V16" si="74">U14/U15</f>
         <v>3.9038499900259325</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>5.2104528226610807</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" ref="W16:X16" si="69">W14/W15</f>
+        <f t="shared" ref="W16:X16" si="75">W14/W15</f>
         <v>8.3961699581089171</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>6.4811490125673252</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" ref="Y16" si="70">Y14/Y15</f>
+        <f t="shared" ref="Y16" si="76">Y14/Y15</f>
         <v>7.759824456413325</v>
       </c>
       <c r="Z16" s="15">
-        <f t="shared" ref="Z16" si="71">Z14/Z15</f>
+        <f t="shared" ref="Z16" si="77">Z14/Z15</f>
         <v>9.305804907241173</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" ref="AA16:AD16" si="72">AA14/AA15</f>
+        <f t="shared" ref="AA16:AD16" si="78">AA14/AA15</f>
         <v>6.5150608418112901</v>
       </c>
       <c r="AB16" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>6.2078595651306605</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>2.4157191302613206</v>
       </c>
       <c r="AD16" s="15">
-        <f t="shared" si="72"/>
-        <v>5.279912228206662</v>
-      </c>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
+        <f t="shared" si="78"/>
+        <v>6.2477558348294435</v>
+      </c>
+      <c r="AE16" s="15">
+        <f t="shared" ref="AE16:AH16" si="79">AE14/AE15</f>
+        <v>3.6544983044085377</v>
+      </c>
+      <c r="AF16" s="15">
+        <f t="shared" si="79"/>
+        <v>6.1652954268900855</v>
+      </c>
+      <c r="AG16" s="15">
+        <f t="shared" si="79"/>
+        <v>5.1434757271095162</v>
+      </c>
+      <c r="AH16" s="15">
+        <f t="shared" si="79"/>
+        <v>7.1639645082784735</v>
+      </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="15">
         <f>AJ14/AJ15</f>
@@ -5022,60 +5197,60 @@
         <v>29.609016556951925</v>
       </c>
       <c r="AN16" s="15">
-        <f t="shared" ref="AN16:AV16" si="73">AN14/AN15</f>
+        <f t="shared" ref="AN16:AV16" si="80">AN14/AN15</f>
         <v>29.654897267105525</v>
       </c>
       <c r="AO16" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>31.94294833433074</v>
       </c>
       <c r="AP16" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>21.386395372032716</v>
       </c>
       <c r="AQ16" s="15">
-        <f t="shared" si="73"/>
-        <v>25.701641364452428</v>
+        <f t="shared" si="80"/>
+        <v>22.127233966686699</v>
       </c>
       <c r="AR16" s="15">
-        <f t="shared" si="73"/>
-        <v>25.958657778096942</v>
+        <f t="shared" si="80"/>
+        <v>27.242255511470162</v>
       </c>
       <c r="AS16" s="15">
-        <f t="shared" si="73"/>
-        <v>26.218244355877911</v>
+        <f t="shared" si="80"/>
+        <v>27.514678066584878</v>
       </c>
       <c r="AT16" s="15">
-        <f t="shared" si="73"/>
-        <v>26.480426799436689</v>
+        <f t="shared" si="80"/>
+        <v>27.789824847250731</v>
       </c>
       <c r="AU16" s="15">
-        <f t="shared" si="73"/>
-        <v>26.745231067431057</v>
+        <f t="shared" si="80"/>
+        <v>28.067723095723231</v>
       </c>
       <c r="AV16" s="15">
-        <f t="shared" si="73"/>
-        <v>27.012683378105375</v>
+        <f t="shared" si="80"/>
+        <v>28.348400326680462</v>
       </c>
       <c r="AW16" s="15">
-        <f t="shared" ref="AW16:BA16" si="74">AW14/AW15</f>
-        <v>27.282810211886417</v>
+        <f t="shared" ref="AW16:BA16" si="81">AW14/AW15</f>
+        <v>28.63188432994728</v>
       </c>
       <c r="AX16" s="15">
-        <f t="shared" si="74"/>
-        <v>27.555638314005282</v>
+        <f t="shared" si="81"/>
+        <v>28.918203173246763</v>
       </c>
       <c r="AY16" s="15">
-        <f t="shared" si="74"/>
-        <v>27.831194697145349</v>
+        <f t="shared" si="81"/>
+        <v>29.207385204979211</v>
       </c>
       <c r="AZ16" s="15">
-        <f t="shared" si="74"/>
-        <v>28.109506644116792</v>
+        <f t="shared" si="81"/>
+        <v>29.499459057029007</v>
       </c>
       <c r="BA16" s="15">
-        <f t="shared" si="74"/>
-        <v>28.390601710557963</v>
+        <f t="shared" si="81"/>
+        <v>29.79445364759929</v>
       </c>
     </row>
     <row r="17" spans="2:56" x14ac:dyDescent="0.3">
@@ -5086,191 +5261,203 @@
         <v>30</v>
       </c>
       <c r="C18" s="16">
-        <f t="shared" ref="C18:N18" si="75">C5/C3</f>
+        <f t="shared" ref="C18:N18" si="82">C5/C3</f>
         <v>0.19871882942914063</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.21681466581628481</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.18507246376811595</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.18448883666274971</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.1947610477904419</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.2002761371481169</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.18948225333767502</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.19330455199575855</v>
       </c>
       <c r="K18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.16765357648853851</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>8.9395267309377732E-2</v>
       </c>
       <c r="M18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.17567180523965967</v>
       </c>
       <c r="N18" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.23172450629831304</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" ref="O18:AD18" si="76">O5/O3</f>
+        <f t="shared" ref="O18:AD18" si="83">O5/O3</f>
         <v>0.19764011799410031</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.18606690146077601</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.15671602466143225</v>
       </c>
       <c r="R18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.21179245283018869</v>
       </c>
       <c r="S18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.19106818399158459</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.20836029506923773</v>
       </c>
       <c r="U18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.1792623599954746</v>
       </c>
       <c r="V18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.17148291467173871</v>
       </c>
       <c r="W18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.19938843539200504</v>
       </c>
       <c r="X18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.19638016962490162</v>
       </c>
       <c r="Y18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.17006785465153149</v>
       </c>
       <c r="Z18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.19153036177192539</v>
       </c>
       <c r="AA18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.17950994553477956</v>
       </c>
       <c r="AB18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.18935912357959658</v>
       </c>
       <c r="AC18" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.16639058079971458</v>
       </c>
       <c r="AD18" s="16">
-        <f t="shared" si="76"/>
-        <v>0.19</v>
-      </c>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
+        <f t="shared" si="83"/>
+        <v>0.1955526562750349</v>
+      </c>
+      <c r="AE18" s="16">
+        <f t="shared" ref="AE18:AH18" si="84">AE5/AE3</f>
+        <v>0.16503777817891127</v>
+      </c>
+      <c r="AF18" s="16">
+        <f t="shared" si="84"/>
+        <v>0.18</v>
+      </c>
+      <c r="AG18" s="16">
+        <f t="shared" si="84"/>
+        <v>0.18</v>
+      </c>
+      <c r="AH18" s="16">
+        <f t="shared" si="84"/>
+        <v>0.18999999999999997</v>
+      </c>
       <c r="AJ18" s="16">
-        <f t="shared" ref="AJ18:AV18" si="77">AJ5/AJ3</f>
+        <f t="shared" ref="AJ18:AV18" si="85">AJ5/AJ3</f>
         <v>0.19651980716475373</v>
       </c>
       <c r="AK18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.19452009246651256</v>
       </c>
       <c r="AL18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.17474112094183522</v>
       </c>
       <c r="AM18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.18881294964028777</v>
       </c>
       <c r="AN18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.18703801856520744</v>
       </c>
       <c r="AO18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.18934231919673331</v>
       </c>
       <c r="AP18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.18318466315115076</v>
       </c>
       <c r="AQ18" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
+        <v>0.17915588014334022</v>
+      </c>
+      <c r="AR18" s="16">
+        <f t="shared" si="85"/>
         <v>0.18</v>
       </c>
-      <c r="AR18" s="16">
-        <f t="shared" si="77"/>
+      <c r="AS18" s="16">
+        <f t="shared" si="85"/>
         <v>0.18</v>
       </c>
-      <c r="AS18" s="16">
-        <f t="shared" si="77"/>
+      <c r="AT18" s="16">
+        <f t="shared" si="85"/>
         <v>0.18</v>
       </c>
-      <c r="AT18" s="16">
-        <f t="shared" si="77"/>
+      <c r="AU18" s="16">
+        <f t="shared" si="85"/>
         <v>0.18</v>
       </c>
-      <c r="AU18" s="16">
-        <f t="shared" si="77"/>
+      <c r="AV18" s="16">
+        <f t="shared" si="85"/>
         <v>0.18</v>
       </c>
-      <c r="AV18" s="16">
-        <f t="shared" si="77"/>
+      <c r="AW18" s="16">
+        <f t="shared" ref="AW18:BA18" si="86">AW5/AW3</f>
         <v>0.18</v>
       </c>
-      <c r="AW18" s="16">
-        <f t="shared" ref="AW18:BA18" si="78">AW5/AW3</f>
+      <c r="AX18" s="16">
+        <f t="shared" si="86"/>
         <v>0.18</v>
       </c>
-      <c r="AX18" s="16">
-        <f t="shared" si="78"/>
+      <c r="AY18" s="16">
+        <f t="shared" si="86"/>
         <v>0.18</v>
       </c>
-      <c r="AY18" s="16">
-        <f t="shared" si="78"/>
+      <c r="AZ18" s="16">
+        <f t="shared" si="86"/>
         <v>0.18</v>
       </c>
-      <c r="AZ18" s="16">
-        <f t="shared" si="78"/>
-        <v>0.18</v>
-      </c>
       <c r="BA18" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.18</v>
       </c>
     </row>
@@ -5279,192 +5466,204 @@
         <v>31</v>
       </c>
       <c r="C19" s="16">
-        <f t="shared" ref="C19:N19" si="79">C9/C3</f>
+        <f t="shared" ref="C19:N19" si="87">C9/C3</f>
         <v>7.2336333035652955E-2</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>6.4579960424536786E-2</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>4.9112318840579712E-2</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>4.974539757148453E-2</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>6.4453775911484365E-2</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>7.8683746260642784E-2</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>7.3949853467925764E-2</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>5.1821555707036282E-2</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>1.6420241944272895E-2</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>-5.8282208588957052E-2</v>
       </c>
       <c r="M19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>5.3626484710639376E-2</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0.11842905681093191</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" ref="O19:AD19" si="80">O9/O3</f>
+        <f t="shared" ref="O19:AD19" si="88">O9/O3</f>
         <v>7.7161087597794026E-2</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>9.7305811897225564E-2</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>4.5599058509423689E-2</v>
       </c>
       <c r="R19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>8.3616352201257862E-2</v>
       </c>
       <c r="S19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.13267030059609194</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.4765684540500121E-2</v>
       </c>
       <c r="U19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.0371648376513182E-2</v>
       </c>
       <c r="V19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.5940840821145139E-2</v>
       </c>
       <c r="W19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>7.5408803380666162E-2</v>
       </c>
       <c r="X19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.9948413045379035E-2</v>
       </c>
       <c r="Y19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.2083835373200585E-2</v>
       </c>
       <c r="Z19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>7.2664082035282518E-2</v>
       </c>
       <c r="AA19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.079961834590053E-2</v>
       </c>
       <c r="AB19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>6.556354167916581E-2</v>
       </c>
       <c r="AC19" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>3.6366879889905453E-2</v>
       </c>
       <c r="AD19" s="16">
-        <f t="shared" si="80"/>
-        <v>6.4876971320011897E-2</v>
-      </c>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
+        <f t="shared" si="88"/>
+        <v>7.0429627595046812E-2</v>
+      </c>
+      <c r="AE19" s="16">
+        <f t="shared" ref="AE19:AH19" si="89">AE9/AE3</f>
+        <v>3.7056138631733668E-2</v>
+      </c>
+      <c r="AF19" s="16">
+        <f t="shared" si="89"/>
+        <v>6.0743543696454377E-2</v>
+      </c>
+      <c r="AG19" s="16">
+        <f t="shared" si="89"/>
+        <v>5.4860485589831705E-2</v>
+      </c>
+      <c r="AH19" s="16">
+        <f t="shared" si="89"/>
+        <v>6.6402540549323749E-2</v>
+      </c>
       <c r="AJ19" s="16">
-        <f t="shared" ref="AJ19:AV19" si="81">AJ9/AJ3</f>
+        <f t="shared" ref="AJ19:AV19" si="90">AJ9/AJ3</f>
         <v>5.9020814164995397E-2</v>
       </c>
       <c r="AK19" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>6.7133221444630922E-2</v>
       </c>
       <c r="AL19" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>4.3408230290195797E-2</v>
       </c>
       <c r="AM19" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>7.7038369304556362E-2</v>
       </c>
       <c r="AN19" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>7.9231606692642675E-2</v>
       </c>
       <c r="AO19" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>7.0050017996549627E-2</v>
       </c>
       <c r="AP19" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v>5.8708294317677788E-2</v>
       </c>
       <c r="AQ19" s="16">
-        <f t="shared" si="81"/>
-        <v>6.5225906135042075E-2</v>
+        <f t="shared" si="90"/>
+        <v>5.5264222731434574E-2</v>
       </c>
       <c r="AR19" s="16">
-        <f t="shared" si="81"/>
-        <v>6.5225906135042061E-2</v>
+        <f t="shared" si="90"/>
+        <v>6.445446797030116E-2</v>
       </c>
       <c r="AS19" s="16">
-        <f t="shared" si="81"/>
-        <v>6.5225906135042061E-2</v>
+        <f t="shared" si="90"/>
+        <v>6.4454467970301188E-2</v>
       </c>
       <c r="AT19" s="16">
-        <f t="shared" si="81"/>
-        <v>6.5225906135042061E-2</v>
+        <f t="shared" si="90"/>
+        <v>6.4454467970301188E-2</v>
       </c>
       <c r="AU19" s="16">
-        <f t="shared" si="81"/>
-        <v>6.5225906135042075E-2</v>
+        <f t="shared" si="90"/>
+        <v>6.4454467970301174E-2</v>
       </c>
       <c r="AV19" s="16">
-        <f t="shared" si="81"/>
-        <v>6.5225906135042075E-2</v>
+        <f t="shared" si="90"/>
+        <v>6.4454467970301174E-2</v>
       </c>
       <c r="AW19" s="16">
-        <f t="shared" ref="AW19:BA19" si="82">AW9/AW3</f>
-        <v>6.5225906135042047E-2</v>
+        <f t="shared" ref="AW19:BA19" si="91">AW9/AW3</f>
+        <v>6.4454467970301188E-2</v>
       </c>
       <c r="AX19" s="16">
-        <f t="shared" si="82"/>
-        <v>6.5225906135042047E-2</v>
+        <f t="shared" si="91"/>
+        <v>6.4454467970301202E-2</v>
       </c>
       <c r="AY19" s="16">
-        <f t="shared" si="82"/>
-        <v>6.5225906135042075E-2</v>
+        <f t="shared" si="91"/>
+        <v>6.4454467970301174E-2</v>
       </c>
       <c r="AZ19" s="16">
-        <f t="shared" si="82"/>
-        <v>6.5225906135042047E-2</v>
+        <f t="shared" si="91"/>
+        <v>6.4454467970301174E-2</v>
       </c>
       <c r="BA19" s="16">
-        <f t="shared" si="82"/>
-        <v>6.5225906135042061E-2</v>
+        <f t="shared" si="91"/>
+        <v>6.4454467970301174E-2</v>
       </c>
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.3">
@@ -5476,187 +5675,199 @@
         <v>8.1730438964072269E-2</v>
       </c>
       <c r="D20" s="17">
-        <f t="shared" ref="D20:AD20" si="83">D6/D3</f>
+        <f t="shared" ref="D20:AD20" si="92">D6/D3</f>
         <v>8.9698932116633143E-2</v>
       </c>
       <c r="E20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.739130434782609E-2</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.8817077947512729E-2</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.2333533293341338E-2</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>7.7563856715502033E-2</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.2969716704656457E-2</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.9146406119821248E-2</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.1229338467686277E-2</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>9.4459051514266243E-2</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>7.5949793614691258E-2</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.230092434605854E-2</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.989867897909452E-2</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.9903258882796124E-2</v>
       </c>
       <c r="Q20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.3855895733431704E-2</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>8.474842767295597E-2</v>
       </c>
       <c r="S20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.8773708201842462E-2</v>
       </c>
       <c r="T20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.847561940094618E-2</v>
       </c>
       <c r="U20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.8390089376626315E-2</v>
       </c>
       <c r="V20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>7.7746441923001244E-2</v>
       </c>
       <c r="W20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.346623270951994E-2</v>
       </c>
       <c r="X20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.482718994741378E-2</v>
       </c>
       <c r="Y20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.7448791933540489E-2</v>
       </c>
       <c r="Z20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.8775664701429193E-2</v>
       </c>
       <c r="AA20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.7624335749592507E-2</v>
       </c>
       <c r="AB20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>6.4903586556114182E-2</v>
       </c>
       <c r="AC20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>7.0032365758556536E-2</v>
       </c>
       <c r="AD20" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>7.223786307766257E-2</v>
       </c>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
+      <c r="AE20" s="17">
+        <f t="shared" ref="AE20:AH20" si="93">AE6/AE3</f>
+        <v>6.9947652079733871E-2</v>
+      </c>
+      <c r="AF20" s="17">
+        <f t="shared" si="93"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG20" s="17">
+        <f t="shared" si="93"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH20" s="17">
+        <f t="shared" si="93"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="AJ20" s="17">
-        <f t="shared" ref="AJ20:AV20" si="84">AJ6/AJ3</f>
+        <f t="shared" ref="AJ20:AV20" si="94">AJ6/AJ3</f>
         <v>8.6962420870981008E-2</v>
       </c>
       <c r="AK20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>8.3037778270369553E-2</v>
       </c>
       <c r="AL20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>8.2585560201719282E-2</v>
       </c>
       <c r="AM20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>7.6850519584332533E-2</v>
       </c>
       <c r="AN20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>7.1052028420811375E-2</v>
       </c>
       <c r="AO20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>6.6214891213960361E-2</v>
       </c>
       <c r="AP20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>6.874969198166675E-2</v>
       </c>
       <c r="AQ20" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
+        <v>6.870940480636073E-2</v>
+      </c>
+      <c r="AR20" s="17">
+        <f t="shared" si="94"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR20" s="17">
-        <f t="shared" si="84"/>
+      <c r="AS20" s="17">
+        <f t="shared" si="94"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS20" s="17">
-        <f t="shared" si="84"/>
+      <c r="AT20" s="17">
+        <f t="shared" si="94"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT20" s="17">
-        <f t="shared" si="84"/>
+      <c r="AU20" s="17">
+        <f t="shared" si="94"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AU20" s="17">
-        <f t="shared" si="84"/>
+      <c r="AV20" s="17">
+        <f t="shared" si="94"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AV20" s="17">
-        <f t="shared" si="84"/>
+      <c r="AW20" s="17">
+        <f t="shared" ref="AW20:BA20" si="95">AW6/AW3</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AW20" s="17">
-        <f t="shared" ref="AW20:BA20" si="85">AW6/AW3</f>
+      <c r="AX20" s="17">
+        <f t="shared" si="95"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX20" s="17">
-        <f t="shared" si="85"/>
+      <c r="AY20" s="17">
+        <f t="shared" si="95"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AY20" s="17">
-        <f t="shared" si="85"/>
+      <c r="AZ20" s="17">
+        <f t="shared" si="95"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AZ20" s="17">
-        <f t="shared" si="85"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="BA20" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5665,192 +5876,204 @@
         <v>100</v>
       </c>
       <c r="C21" s="17">
-        <f t="shared" ref="C21:N21" si="86">C7/C3</f>
+        <f t="shared" ref="C21:N21" si="96">C7/C3</f>
         <v>3.6494470014426052E-2</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.4358697607483363E-2</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.6376811594202897E-2</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>4.2188928058493273E-2</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.7842431513697261E-2</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.4547825419958579E-2</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.7658743080429824E-2</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>4.4399000227221083E-2</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>4.4410941984233662E-2</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>5.8793456032719835E-2</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.9659674837840116E-2</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>3.2418878618377125E-2</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" ref="O21:AD21" si="87">O7/O3</f>
+        <f t="shared" ref="O21:AD21" si="97">O7/O3</f>
         <v>4.2147620879825577E-2</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.423833088136953E-2</v>
       </c>
       <c r="Q21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.4299239430187418E-2</v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.6619496855345909E-2</v>
       </c>
       <c r="S21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.4260622868254121E-2</v>
       </c>
       <c r="T21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.0090303840789154E-2</v>
       </c>
       <c r="U21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.416506392125806E-2</v>
       </c>
       <c r="V21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.9365121007411297E-2</v>
       </c>
       <c r="W21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.2533924774928476E-2</v>
       </c>
       <c r="X21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.6972732609700347E-2</v>
       </c>
       <c r="Y21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.9723508148899737E-2</v>
       </c>
       <c r="Z21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.8895643596155167E-2</v>
       </c>
       <c r="AA21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>4.4499807847762418E-2</v>
       </c>
       <c r="AB21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.905734410060116E-2</v>
       </c>
       <c r="AC21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.5092637427049621E-2</v>
       </c>
       <c r="AD21" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>3.8762617592529011E-2</v>
       </c>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
+      <c r="AE21" s="17">
+        <f t="shared" ref="AE21:AH21" si="98">AE7/AE3</f>
+        <v>4.3116119549240571E-2</v>
+      </c>
+      <c r="AF21" s="17">
+        <f t="shared" si="98"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG21" s="17">
+        <f t="shared" si="98"/>
+        <v>0.04</v>
+      </c>
+      <c r="AH21" s="17">
+        <f t="shared" si="98"/>
+        <v>0.04</v>
+      </c>
       <c r="AJ21" s="17">
-        <f t="shared" ref="AJ21:AV21" si="88">AJ7/AJ3</f>
+        <f t="shared" ref="AJ21:AV21" si="99">AJ7/AJ3</f>
         <v>3.7392568974216556E-2</v>
       </c>
       <c r="AK21" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>3.8660977231704613E-2</v>
       </c>
       <c r="AL21" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>4.2169917984242924E-2</v>
       </c>
       <c r="AM21" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>4.1646682653876901E-2</v>
       </c>
       <c r="AN21" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>4.1861247994499196E-2</v>
       </c>
       <c r="AO21" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>3.9480706457658464E-2</v>
       </c>
       <c r="AP21" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>3.9284658222857427E-2</v>
       </c>
       <c r="AQ21" s="17">
-        <f t="shared" si="88"/>
-        <v>3.9284658222857427E-2</v>
+        <f t="shared" si="99"/>
+        <v>4.0734043149333043E-2</v>
       </c>
       <c r="AR21" s="17">
-        <f t="shared" si="88"/>
-        <v>3.9284658222857427E-2</v>
+        <f t="shared" si="99"/>
+        <v>4.0734043149333043E-2</v>
       </c>
       <c r="AS21" s="17">
-        <f t="shared" si="88"/>
-        <v>3.9284658222857427E-2</v>
+        <f t="shared" si="99"/>
+        <v>4.0734043149333043E-2</v>
       </c>
       <c r="AT21" s="17">
-        <f t="shared" si="88"/>
-        <v>3.928465822285742E-2</v>
+        <f t="shared" si="99"/>
+        <v>4.0734043149333043E-2</v>
       </c>
       <c r="AU21" s="17">
-        <f t="shared" si="88"/>
-        <v>3.928465822285742E-2</v>
+        <f t="shared" si="99"/>
+        <v>4.0734043149333043E-2</v>
       </c>
       <c r="AV21" s="17">
-        <f t="shared" si="88"/>
-        <v>3.928465822285742E-2</v>
+        <f t="shared" si="99"/>
+        <v>4.0734043149333037E-2</v>
       </c>
       <c r="AW21" s="17">
-        <f t="shared" ref="AW21:BA21" si="89">AW7/AW3</f>
-        <v>3.928465822285742E-2</v>
+        <f t="shared" ref="AW21:BA21" si="100">AW7/AW3</f>
+        <v>4.073404314933303E-2</v>
       </c>
       <c r="AX21" s="17">
-        <f t="shared" si="89"/>
-        <v>3.928465822285742E-2</v>
+        <f t="shared" si="100"/>
+        <v>4.073404314933303E-2</v>
       </c>
       <c r="AY21" s="17">
-        <f t="shared" si="89"/>
-        <v>3.928465822285742E-2</v>
+        <f t="shared" si="100"/>
+        <v>4.073404314933303E-2</v>
       </c>
       <c r="AZ21" s="17">
-        <f t="shared" si="89"/>
-        <v>3.9284658222857413E-2</v>
+        <f t="shared" si="100"/>
+        <v>4.073404314933303E-2</v>
       </c>
       <c r="BA21" s="17">
-        <f t="shared" si="89"/>
-        <v>3.9284658222857413E-2</v>
+        <f t="shared" si="100"/>
+        <v>4.073404314933303E-2</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>33</v>
@@ -5872,168 +6095,180 @@
         <v>6.8705882352941172E-2</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" ref="H22:AD22" si="90">H7/D7-1</f>
+        <f t="shared" ref="H22:AD22" si="101">H7/D7-1</f>
         <v>7.1870537839124227E-2</v>
       </c>
       <c r="I22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.15189243027888444</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.13384912959381046</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>7.6618229854689579E-2</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>7.2380106571936054E-2</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>1.7725897103328947E-2</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>-0.25452064141931086</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>7.5255623721881326E-2</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>-4.5962732919254679E-2</v>
       </c>
       <c r="Q22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>7.136788445199671E-2</v>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.3569794050343249</v>
       </c>
       <c r="S22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>5.6295169265880629E-2</v>
       </c>
       <c r="T22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.21006944444444442</v>
       </c>
       <c r="U22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.23830293417922288</v>
       </c>
       <c r="V22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>1.2141652613828047E-2</v>
       </c>
       <c r="W22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.167086784299604</v>
       </c>
       <c r="X22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>6.1692969870875247E-2</v>
       </c>
       <c r="Y22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>2.8818443804035088E-3</v>
       </c>
       <c r="Z22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>0.12995668110629799</v>
       </c>
       <c r="AA22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>3.6099969145325428E-2</v>
       </c>
       <c r="AB22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>9.966216216216206E-2</v>
       </c>
       <c r="AC22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>-0.12068965517241381</v>
       </c>
       <c r="AD22" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>-1.1795930404010502E-3</v>
       </c>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
+      <c r="AE22" s="17">
+        <f t="shared" ref="AE22" si="102">AE7/AA7-1</f>
+        <v>-4.1691483025610987E-3</v>
+      </c>
+      <c r="AF22" s="17">
+        <f t="shared" ref="AF22" si="103">AF7/AB7-1</f>
+        <v>3.4376528417818797E-2</v>
+      </c>
+      <c r="AG22" s="17">
+        <f t="shared" ref="AG22" si="104">AG7/AC7-1</f>
+        <v>0.15123863471314447</v>
+      </c>
+      <c r="AH22" s="17">
+        <f t="shared" ref="AH22" si="105">AH7/AD7-1</f>
+        <v>4.2241275465013217E-2</v>
+      </c>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17">
         <f>AK7/AJ7-1</f>
         <v>0.10749518085950793</v>
       </c>
       <c r="AL22" s="17">
-        <f t="shared" ref="AL22:BA22" si="91">AL7/AK7-1</f>
+        <f t="shared" ref="AL22:BA22" si="106">AL7/AK7-1</f>
         <v>-3.7677894952390711E-2</v>
       </c>
       <c r="AM22" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>0.10862857750824562</v>
       </c>
       <c r="AN22" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>0.1217850287907869</v>
       </c>
       <c r="AO22" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>8.8544785695953365E-2</v>
       </c>
       <c r="AP22" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>2.3577491354920266E-3</v>
       </c>
       <c r="AQ22" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
+        <v>5.155072918300152E-2</v>
+      </c>
+      <c r="AR22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AR22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AS22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AS22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AT22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AT22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AU22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AU22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AV22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AV22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AW22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AW22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AX22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AX22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AY22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AY22" s="17">
-        <f t="shared" si="91"/>
+      <c r="AZ22" s="17">
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AZ22" s="17">
-        <f t="shared" si="91"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
       <c r="BA22" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BC22" s="1" t="s">
@@ -6048,172 +6283,184 @@
         <v>32</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" ref="G23:AD23" si="92">G3/C3-1</f>
+        <f t="shared" ref="G23:AD23" si="107">G3/C3-1</f>
         <v>3.0638180943875826E-2</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>6.6002714680534424E-2</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.11268115942028989</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>7.7408930669800258E-2</v>
       </c>
       <c r="K23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-8.2616809971339022E-2</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-0.36985502799723868</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-3.3620970367958303E-2</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>2.0964932212375942E-2</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.13299669415482973</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.6382559158632779</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-4.0839019459186221E-2</v>
       </c>
       <c r="R23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-5.6365821451356823E-2</v>
       </c>
       <c r="S23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>5.8676414005387478E-3</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>3.343587000133752E-2</v>
       </c>
       <c r="U23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.24206495582371645</v>
       </c>
       <c r="V23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.19866352201257853</v>
       </c>
       <c r="W23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.21446558923846859</v>
       </c>
       <c r="X23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.15121579454438261</v>
       </c>
       <c r="Y23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.11501583889580269</v>
       </c>
       <c r="Z23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>0.143595461402243</v>
       </c>
       <c r="AA23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-9.6721698732250561E-3</v>
       </c>
       <c r="AB23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>4.0969784783722041E-2</v>
       </c>
       <c r="AC23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>-4.6547022639356062E-3</v>
       </c>
       <c r="AD23" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v>2.2481704939092406E-3</v>
       </c>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
+      <c r="AE23" s="16">
+        <f t="shared" ref="AE23" si="108">AE3/AA3-1</f>
+        <v>2.7789189117557456E-2</v>
+      </c>
+      <c r="AF23" s="16">
+        <f t="shared" ref="AF23" si="109">AF3/AB3-1</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AG23" s="16">
+        <f t="shared" ref="AG23" si="110">AG3/AC3-1</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AH23" s="16">
+        <f t="shared" ref="AH23" si="111">AH3/AD3-1</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16">
-        <f t="shared" ref="AK23:AV23" si="93">AK3/AJ3-1</f>
+        <f t="shared" ref="AK23:AV23" si="112">AK3/AJ3-1</f>
         <v>7.1159937078384861E-2</v>
       </c>
       <c r="AL23" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
         <v>-0.11775230374616041</v>
       </c>
       <c r="AM23" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
         <v>0.1225570251790169</v>
       </c>
       <c r="AN23" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
         <v>0.11603517186250989</v>
       </c>
       <c r="AO23" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
         <v>0.15418003667201474</v>
       </c>
       <c r="AP23" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
         <v>7.3599682267813105E-3</v>
       </c>
       <c r="AQ23" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="112"/>
+        <v>1.4134807303730845E-2</v>
+      </c>
+      <c r="AR23" s="16">
+        <f t="shared" si="112"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AR23" s="16">
-        <f t="shared" si="93"/>
+      <c r="AS23" s="16">
+        <f t="shared" si="112"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AS23" s="16">
-        <f t="shared" si="93"/>
+      <c r="AT23" s="16">
+        <f t="shared" si="112"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AT23" s="16">
-        <f t="shared" si="93"/>
+      <c r="AU23" s="16">
+        <f t="shared" si="112"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AU23" s="16">
-        <f t="shared" si="93"/>
+      <c r="AV23" s="16">
+        <f t="shared" si="112"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AV23" s="16">
-        <f t="shared" si="93"/>
+      <c r="AW23" s="16">
+        <f t="shared" ref="AW23:BA23" si="113">AW3/AV3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AW23" s="16">
-        <f t="shared" ref="AW23:BA23" si="94">AW3/AV3-1</f>
+      <c r="AX23" s="16">
+        <f t="shared" si="113"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AX23" s="16">
-        <f t="shared" si="94"/>
+      <c r="AY23" s="16">
+        <f t="shared" si="113"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AY23" s="16">
-        <f t="shared" si="94"/>
+      <c r="AZ23" s="16">
+        <f t="shared" si="113"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AZ23" s="16">
-        <f t="shared" si="94"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
       <c r="BA23" s="16">
-        <f t="shared" si="94"/>
+        <f t="shared" si="113"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BC23" s="1" t="s">
@@ -6221,7 +6468,7 @@
       </c>
       <c r="BD23" s="6">
         <f>NPV(BD22,AQ14:FB14)</f>
-        <v>212190.84886711003</v>
+        <v>220391.75366932846</v>
       </c>
     </row>
     <row r="24" spans="2:56" x14ac:dyDescent="0.3">
@@ -6229,199 +6476,211 @@
         <v>81</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" ref="C24:N24" si="95">C14/C3</f>
+        <f t="shared" ref="C24:N24" si="114">C14/C3</f>
         <v>5.5334203475990933E-2</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>5.2854502935452748E-2</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>4.8333333333333332E-2</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>4.416372894633764E-2</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>4.8523628607611814E-2</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>6.0796195443737058E-2</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>6.1706284597850866E-2</v>
       </c>
       <c r="J24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>4.0627130197682347E-2</v>
       </c>
       <c r="K24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>7.3745776873614995E-3</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>-3.9122602006037586E-2</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>4.3500968747367537E-2</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>0.10314693096336741</v>
       </c>
       <c r="O24" s="16">
-        <f t="shared" ref="O24:AD24" si="96">O14/O3</f>
+        <f t="shared" ref="O24:AD24" si="115">O14/O3</f>
         <v>5.2007182249583173E-2</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>7.2251199976223382E-2</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>4.8514868876359099E-2</v>
       </c>
       <c r="R24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>6.25E-2</v>
       </c>
       <c r="S24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>0.10450734755028529</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>5.3779675883985446E-2</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>2.7675642040954858E-2</v>
       </c>
       <c r="V24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>3.4262477864497931E-2</v>
       </c>
       <c r="W24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>5.5237670280059846E-2</v>
       </c>
       <c r="X24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>4.0582570354363655E-2</v>
       </c>
       <c r="Y24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>4.9337307375229879E-2</v>
       </c>
       <c r="Z24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>5.3508751806565578E-2</v>
       </c>
       <c r="AA24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>4.3280635030015502E-2</v>
       </c>
       <c r="AB24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>3.7341460780666913E-2</v>
       </c>
       <c r="AC24" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>1.5431076225184128E-2</v>
       </c>
       <c r="AD24" s="16">
-        <f t="shared" si="96"/>
-        <v>3.0291606582892715E-2</v>
-      </c>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
+        <f t="shared" si="115"/>
+        <v>3.5844262857927627E-2</v>
+      </c>
+      <c r="AE24" s="16">
+        <f t="shared" ref="AE24:AH24" si="116">AE14/AE3</f>
+        <v>2.3621032001856675E-2</v>
+      </c>
+      <c r="AF24" s="16">
+        <f t="shared" si="116"/>
+        <v>3.6718246891884618E-2</v>
+      </c>
+      <c r="AG24" s="16">
+        <f t="shared" si="116"/>
+        <v>3.2530077572348597E-2</v>
+      </c>
+      <c r="AH24" s="16">
+        <f t="shared" si="116"/>
+        <v>4.0693744738066466E-2</v>
+      </c>
       <c r="AJ24" s="16">
-        <f t="shared" ref="AJ24:AV24" si="97">AJ14/AJ3</f>
+        <f t="shared" ref="AJ24:AV24" si="117">AJ14/AJ3</f>
         <v>5.0150732036175691E-2</v>
       </c>
       <c r="AK24" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>5.2831786947021758E-2</v>
       </c>
       <c r="AL24" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>3.7387161034439439E-2</v>
       </c>
       <c r="AM24" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>5.9324540367705833E-2</v>
       </c>
       <c r="AN24" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>5.323888379555352E-2</v>
       </c>
       <c r="AO24" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>4.968599123754204E-2</v>
       </c>
       <c r="AP24" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="117"/>
         <v>3.3022645507860625E-2</v>
       </c>
       <c r="AQ24" s="16">
-        <f t="shared" si="97"/>
-        <v>3.9292870467372995E-2</v>
+        <f t="shared" si="117"/>
+        <v>3.3690364537102363E-2</v>
       </c>
       <c r="AR24" s="16">
-        <f t="shared" si="97"/>
-        <v>3.9292870467372981E-2</v>
+        <f t="shared" si="117"/>
+        <v>4.1067689554419556E-2</v>
       </c>
       <c r="AS24" s="16">
-        <f t="shared" si="97"/>
-        <v>3.9292870467372981E-2</v>
+        <f t="shared" si="117"/>
+        <v>4.106768955441957E-2</v>
       </c>
       <c r="AT24" s="16">
-        <f t="shared" si="97"/>
-        <v>3.9292870467372981E-2</v>
+        <f t="shared" si="117"/>
+        <v>4.1067689554419584E-2</v>
       </c>
       <c r="AU24" s="16">
-        <f t="shared" si="97"/>
-        <v>3.9292870467372981E-2</v>
+        <f t="shared" si="117"/>
+        <v>4.106768955441957E-2</v>
       </c>
       <c r="AV24" s="16">
-        <f t="shared" si="97"/>
-        <v>3.9292870467372995E-2</v>
+        <f t="shared" si="117"/>
+        <v>4.106768955441957E-2</v>
       </c>
       <c r="AW24" s="16">
-        <f t="shared" ref="AW24:BA24" si="98">AW14/AW3</f>
-        <v>3.9292870467372974E-2</v>
+        <f t="shared" ref="AW24:BA24" si="118">AW14/AW3</f>
+        <v>4.1067689554419584E-2</v>
       </c>
       <c r="AX24" s="16">
-        <f t="shared" si="98"/>
-        <v>3.9292870467372974E-2</v>
+        <f t="shared" si="118"/>
+        <v>4.1067689554419591E-2</v>
       </c>
       <c r="AY24" s="16">
-        <f t="shared" si="98"/>
-        <v>3.9292870467372995E-2</v>
+        <f t="shared" si="118"/>
+        <v>4.106768955441957E-2</v>
       </c>
       <c r="AZ24" s="16">
-        <f t="shared" si="98"/>
-        <v>3.9292870467372974E-2</v>
+        <f t="shared" si="118"/>
+        <v>4.106768955441957E-2</v>
       </c>
       <c r="BA24" s="16">
-        <f t="shared" si="98"/>
-        <v>3.9292870467372981E-2</v>
+        <f t="shared" si="118"/>
+        <v>4.1067689554419563E-2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD24" s="6">
         <f>Main!D8</f>
-        <v>-186459</v>
+        <v>-187383</v>
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.3">
@@ -6429,199 +6688,211 @@
         <v>19</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" ref="C25:AD25" si="99">C12/C11</f>
+        <f t="shared" ref="C25:AD25" si="119">C12/C11</f>
         <v>0.26306386779812418</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.26290035587188609</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.22053017484489565</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.2500614099729796</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.25009114108640174</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.21531194646723087</v>
       </c>
       <c r="J25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.22646584185045723</v>
       </c>
       <c r="K25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.24193548387096775</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.24483775811209441</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.23738214087631726</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.24649383765405866</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.2349910394265233</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.24656306037059175</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="R25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.3095076400679117</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.24392985611510792</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.23856781474995134</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.27350136239782014</v>
       </c>
       <c r="V25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.39609621451104099</v>
       </c>
       <c r="W25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.26704897706137631</v>
       </c>
       <c r="X25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.30389276533235404</v>
       </c>
       <c r="Y25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.25077559462254395</v>
       </c>
       <c r="Z25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>7.8813250819075351E-2</v>
       </c>
       <c r="AA25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.28392202277552597</v>
       </c>
       <c r="AB25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.27176093060569595</v>
       </c>
       <c r="AC25" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="119"/>
         <v>0.33106960950764008</v>
       </c>
       <c r="AD25" s="16">
-        <f t="shared" si="99"/>
-        <v>0.2120195321347865</v>
-      </c>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
+        <f t="shared" si="119"/>
+        <v>0.18799626342830453</v>
+      </c>
+      <c r="AE25" s="16">
+        <f t="shared" ref="AE25:AH25" si="120">AE12/AE11</f>
+        <v>0.29678456591639873</v>
+      </c>
+      <c r="AF25" s="16">
+        <f t="shared" si="120"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG25" s="16">
+        <f t="shared" si="120"/>
+        <v>0.25</v>
+      </c>
+      <c r="AH25" s="16">
+        <f t="shared" si="120"/>
+        <v>0.25</v>
+      </c>
       <c r="AJ25" s="16">
-        <f t="shared" ref="AJ25:AV25" si="100">AJ12/AJ11</f>
+        <f t="shared" ref="AJ25:AV25" si="121">AJ12/AJ11</f>
         <v>0.22303905900402737</v>
       </c>
       <c r="AK25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.23567225975157988</v>
       </c>
       <c r="AL25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.2436996399794274</v>
       </c>
       <c r="AM25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.2334293948126801</v>
       </c>
       <c r="AN25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.28163135689334484</v>
       </c>
       <c r="AO25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.22704147624385618</v>
       </c>
       <c r="AP25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.26248140434394523</v>
       </c>
       <c r="AQ25" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
+        <v>0.25859346720783788</v>
+      </c>
+      <c r="AR25" s="16">
+        <f t="shared" si="121"/>
         <v>0.23999999999999996</v>
       </c>
-      <c r="AR25" s="16">
-        <f t="shared" si="100"/>
+      <c r="AS25" s="16">
+        <f t="shared" si="121"/>
         <v>0.24000000000000002</v>
       </c>
-      <c r="AS25" s="16">
-        <f t="shared" si="100"/>
+      <c r="AT25" s="16">
+        <f t="shared" si="121"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="AU25" s="16">
+        <f t="shared" si="121"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="AV25" s="16">
+        <f t="shared" si="121"/>
         <v>0.24</v>
       </c>
-      <c r="AT25" s="16">
-        <f t="shared" si="100"/>
+      <c r="AW25" s="16">
+        <f t="shared" ref="AW25:BA25" si="122">AW12/AW11</f>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="AX25" s="16">
+        <f t="shared" si="122"/>
         <v>0.24</v>
       </c>
-      <c r="AU25" s="16">
-        <f t="shared" si="100"/>
+      <c r="AY25" s="16">
+        <f t="shared" si="122"/>
         <v>0.23999999999999996</v>
       </c>
-      <c r="AV25" s="16">
-        <f t="shared" si="100"/>
-        <v>0.23999999999999996</v>
-      </c>
-      <c r="AW25" s="16">
-        <f t="shared" ref="AW25:BA25" si="101">AW12/AW11</f>
+      <c r="AZ25" s="16">
+        <f t="shared" si="122"/>
         <v>0.24</v>
       </c>
-      <c r="AX25" s="16">
-        <f t="shared" si="101"/>
+      <c r="BA25" s="16">
+        <f t="shared" si="122"/>
         <v>0.24</v>
-      </c>
-      <c r="AY25" s="16">
-        <f t="shared" si="101"/>
-        <v>0.24</v>
-      </c>
-      <c r="AZ25" s="16">
-        <f t="shared" si="101"/>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="BA25" s="16">
-        <f t="shared" si="101"/>
-        <v>0.23999999999999996</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD25" s="6">
         <f>BD23+BD24</f>
-        <v>25731.848867110035</v>
+        <v>33008.753669328464</v>
       </c>
     </row>
     <row r="26" spans="2:56" x14ac:dyDescent="0.3">
@@ -6631,7 +6902,7 @@
       </c>
       <c r="BD26" s="4">
         <f>BD25/AV15</f>
-        <v>51.330239112527494</v>
+        <v>65.846306940611342</v>
       </c>
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.3">
@@ -6641,7 +6912,7 @@
       </c>
       <c r="BD27" s="4">
         <f>Main!D3</f>
-        <v>98.9</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.3">
@@ -6656,39 +6927,39 @@
         <v>3346499.9999999995</v>
       </c>
       <c r="AN28" s="6">
-        <f t="shared" ref="AN28:AV28" si="102">AM28*1.02</f>
+        <f t="shared" ref="AN28:AV28" si="123">AM28*1.02</f>
         <v>3413429.9999999995</v>
       </c>
       <c r="AO28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3481698.5999999996</v>
       </c>
       <c r="AP28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3551332.5719999997</v>
       </c>
       <c r="AQ28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3622359.2234399999</v>
       </c>
       <c r="AR28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3694806.4079088001</v>
       </c>
       <c r="AS28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3768702.5360669759</v>
       </c>
       <c r="AT28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3844076.5867883153</v>
       </c>
       <c r="AU28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3920958.1185240815</v>
       </c>
       <c r="AV28" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>3999377.2808945631</v>
       </c>
       <c r="BC28" s="3" t="s">
@@ -6696,7 +6967,7 @@
       </c>
       <c r="BD28" s="16">
         <f>BD26/BD27-1</f>
-        <v>-0.48098848217869072</v>
+        <v>-0.33083021401817747</v>
       </c>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.3">
@@ -6758,48 +7029,51 @@
         <v>62</v>
       </c>
       <c r="AL31" s="6">
-        <f t="shared" ref="AL31:AV31" si="103">AL3</f>
+        <f t="shared" ref="AL31:AV31" si="124">AL3</f>
         <v>222884</v>
       </c>
       <c r="AM31" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="124"/>
         <v>250200</v>
       </c>
       <c r="AN31" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="124"/>
         <v>279232</v>
       </c>
       <c r="AO31" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="124"/>
         <v>322284</v>
       </c>
       <c r="AP31" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="124"/>
         <v>324656</v>
       </c>
       <c r="AQ31" s="6">
-        <f t="shared" si="103"/>
-        <v>327902.56</v>
+        <f t="shared" si="124"/>
+        <v>329244.95</v>
       </c>
       <c r="AR31" s="6">
-        <f t="shared" si="103"/>
-        <v>331181.58559999999</v>
+        <f t="shared" si="124"/>
+        <v>332537.3995</v>
       </c>
       <c r="AS31" s="6">
-        <f t="shared" si="103"/>
-        <v>334493.40145599999</v>
+        <f t="shared" si="124"/>
+        <v>335862.77349500003</v>
       </c>
       <c r="AT31" s="6">
-        <f t="shared" si="103"/>
-        <v>337838.33547056001</v>
+        <f t="shared" si="124"/>
+        <v>339221.40122995002</v>
       </c>
       <c r="AU31" s="6">
-        <f t="shared" si="103"/>
-        <v>341216.71882526559</v>
+        <f t="shared" si="124"/>
+        <v>342613.61524224951</v>
       </c>
       <c r="AV31" s="6">
-        <f t="shared" si="103"/>
-        <v>344628.88601351826</v>
+        <f t="shared" si="124"/>
+        <v>346039.75139467203</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.3">
@@ -7055,44 +7329,44 @@
         <v>75</v>
       </c>
       <c r="AL37" s="6">
-        <f t="shared" ref="AL37:AU37" si="104">SUM(AL30:AL36)</f>
+        <f t="shared" ref="AL37:AU37" si="125">SUM(AL30:AL36)</f>
         <v>566211.28696444863</v>
       </c>
       <c r="AM37" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>636966.71862508776</v>
       </c>
       <c r="AN37" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>719375.83580187836</v>
       </c>
       <c r="AO37" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>779892.39768064674</v>
       </c>
       <c r="AP37" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>731559.56731552002</v>
       </c>
       <c r="AQ37" s="6">
-        <f t="shared" si="104"/>
-        <v>994354.345712031</v>
+        <f t="shared" si="125"/>
+        <v>995696.73571203102</v>
       </c>
       <c r="AR37" s="6">
-        <f t="shared" si="104"/>
-        <v>1015971.4667816233</v>
+        <f t="shared" si="125"/>
+        <v>1017327.2806816233</v>
       </c>
       <c r="AS37" s="6">
-        <f t="shared" si="104"/>
-        <v>1030458.2053809669</v>
+        <f t="shared" si="125"/>
+        <v>1031827.5774199669</v>
       </c>
       <c r="AT37" s="6">
-        <f t="shared" si="104"/>
-        <v>1039506.1954522777</v>
+        <f t="shared" si="125"/>
+        <v>1040889.2612116676</v>
       </c>
       <c r="AU37" s="6">
-        <f t="shared" si="104"/>
-        <v>1015902.6194716913</v>
+        <f t="shared" si="125"/>
+        <v>1017299.5158886751</v>
       </c>
       <c r="AV37" s="6"/>
     </row>
@@ -7101,43 +7375,43 @@
         <v>64</v>
       </c>
       <c r="AL39" s="17">
-        <f t="shared" ref="AL39:AU39" si="105">AL30/AL$28</f>
+        <f t="shared" ref="AL39:AU39" si="126">AL30/AL$28</f>
         <v>1.4870682805652459E-2</v>
       </c>
       <c r="AM39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>1.9040250597665537E-2</v>
       </c>
       <c r="AN39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>2.2457387613596395E-2</v>
       </c>
       <c r="AO39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>2.163119499449111E-2</v>
       </c>
       <c r="AP39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>7.165793958723056E-2</v>
       </c>
       <c r="AR39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>7.4790042876022866E-2</v>
       </c>
       <c r="AS39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>7.5435392909554519E-2</v>
       </c>
       <c r="AT39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>7.323277501580118E-2</v>
       </c>
       <c r="AU39" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>6.6045568376930097E-2</v>
       </c>
       <c r="AV39" s="17"/>
@@ -7151,44 +7425,44 @@
         <v>7.6592439862542952E-2</v>
       </c>
       <c r="AM40" s="17">
-        <f t="shared" ref="AM40:AV40" si="106">AM31/AM$28</f>
+        <f t="shared" ref="AM40:AV40" si="127">AM31/AM$28</f>
         <v>7.4764679515912161E-2</v>
       </c>
       <c r="AN40" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="127"/>
         <v>8.1803933287045591E-2</v>
       </c>
       <c r="AO40" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="127"/>
         <v>9.2565163452115018E-2</v>
       </c>
       <c r="AP40" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="127"/>
         <v>9.1418078543166081E-2</v>
       </c>
       <c r="AQ40" s="17">
-        <f t="shared" si="106"/>
-        <v>9.052182287117426E-2</v>
+        <f t="shared" si="127"/>
+        <v>9.0892407321030447E-2</v>
       </c>
       <c r="AR40" s="17">
-        <f t="shared" si="106"/>
-        <v>8.9634354019496071E-2</v>
+        <f t="shared" si="127"/>
+        <v>9.000130528847132E-2</v>
       </c>
       <c r="AS40" s="17">
-        <f t="shared" si="106"/>
-        <v>8.8755585842834342E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.9118939550349066E-2</v>
       </c>
       <c r="AT40" s="17">
-        <f t="shared" si="106"/>
-        <v>8.7885433040453625E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.8245224456718188E-2</v>
       </c>
       <c r="AU40" s="17">
-        <f t="shared" si="106"/>
-        <v>8.7023811147900157E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.7380075197338591E-2</v>
       </c>
       <c r="AV40" s="17">
-        <f t="shared" si="106"/>
-        <v>8.6170636528803107E-2</v>
+        <f t="shared" si="127"/>
+        <v>8.6523407793443127E-2</v>
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.3">
@@ -7200,43 +7474,43 @@
         <v>8.568041237113402E-3</v>
       </c>
       <c r="AM41" s="17">
-        <f t="shared" ref="AM41:AV41" si="107">AM32/AM$28</f>
+        <f t="shared" ref="AM41:AV41" si="128">AM32/AM$28</f>
         <v>7.9387419692215754E-3</v>
       </c>
       <c r="AN41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>7.878878430200709E-3</v>
       </c>
       <c r="AO41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>8.0242442582479714E-3</v>
       </c>
       <c r="AP41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>8.1473642395888807E-3</v>
       </c>
       <c r="AQ41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>8.8977922982998899E-3</v>
       </c>
       <c r="AR41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>7.5960678047770564E-3</v>
       </c>
       <c r="AS41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>7.7703134486599278E-3</v>
       </c>
       <c r="AT41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>7.5872577825947737E-3</v>
       </c>
       <c r="AU41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>8.2436483693345223E-3</v>
       </c>
       <c r="AV41" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="128"/>
         <v>7.1928697843594101E-3</v>
       </c>
     </row>
@@ -7249,43 +7523,43 @@
         <v>1.2947766323024055E-2</v>
       </c>
       <c r="AM42" s="17">
-        <f t="shared" ref="AM42:AV42" si="108">AM33/$AL$28</f>
+        <f t="shared" ref="AM42:AV42" si="129">AM33/$AL$28</f>
         <v>1.184742268041237E-2</v>
       </c>
       <c r="AN42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.3810996563573883E-2</v>
       </c>
       <c r="AO42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.3536769759450172E-2</v>
       </c>
       <c r="AP42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.5119931271477663E-2</v>
       </c>
       <c r="AQ42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.4252233676975945E-2</v>
       </c>
       <c r="AR42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.544810996563574E-2</v>
       </c>
       <c r="AS42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.5051890034364261E-2</v>
       </c>
       <c r="AT42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.5794501718213057E-2</v>
       </c>
       <c r="AU42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.47E-2</v>
       </c>
       <c r="AV42" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="129"/>
         <v>1.6428865979381445E-2</v>
       </c>
     </row>
@@ -7294,47 +7568,47 @@
         <v>80</v>
       </c>
       <c r="AL43" s="17">
-        <f t="shared" ref="AL43:AV43" si="109">AL34/$AL$28</f>
+        <f t="shared" ref="AL43:AV43" si="130">AL34/$AL$28</f>
         <v>4.2091065292096219E-2</v>
       </c>
       <c r="AM43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>4.3643986254295532E-2</v>
       </c>
       <c r="AN43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>5.386082474226804E-2</v>
       </c>
       <c r="AO43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>5.9052233676975943E-2</v>
       </c>
       <c r="AP43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.4413058419243982E-2</v>
       </c>
       <c r="AQ43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.5057189003436433E-2</v>
       </c>
       <c r="AR43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.5707760893470801E-2</v>
       </c>
       <c r="AS43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.6364838502405502E-2</v>
       </c>
       <c r="AT43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.7028486887429559E-2</v>
       </c>
       <c r="AU43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.7698771756303858E-2</v>
       </c>
       <c r="AV43" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="130"/>
         <v>6.8375759473866898E-2</v>
       </c>
     </row>
@@ -7347,43 +7621,43 @@
         <v>2.9742130584192443E-2</v>
       </c>
       <c r="AM44" s="17">
-        <f t="shared" ref="AM44:AV44" si="110">AM35/$AL$28</f>
+        <f t="shared" ref="AM44:AV44" si="131">AM35/$AL$28</f>
         <v>3.5690556701030926E-2</v>
       </c>
       <c r="AN44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6047462268041237E-2</v>
       </c>
       <c r="AO44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6407936890721651E-2</v>
       </c>
       <c r="AP44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
       <c r="AQ44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
       <c r="AR44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
       <c r="AS44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
       <c r="AT44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
       <c r="AU44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
       <c r="AV44" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="131"/>
         <v>3.6772016259628865E-2</v>
       </c>
     </row>
@@ -7396,43 +7670,43 @@
         <v>9.7621993127147769E-3</v>
       </c>
       <c r="AM45" s="17">
-        <f t="shared" ref="AM45:AV45" si="111">AM36/$AL$28</f>
+        <f t="shared" ref="AM45:AV45" si="132">AM36/$AL$28</f>
         <v>1.0701718213058419E-2</v>
       </c>
       <c r="AN45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.1948453608247422E-2</v>
       </c>
       <c r="AO45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.2775257731958763E-2</v>
       </c>
       <c r="AP45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.3581443298969072E-2</v>
       </c>
       <c r="AQ45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.266426116838488E-2</v>
       </c>
       <c r="AR45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.2790034364261169E-2</v>
       </c>
       <c r="AS45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.3215807560137457E-2</v>
       </c>
       <c r="AT45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.4765635738831615E-2</v>
       </c>
       <c r="AU45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.258213058419244E-2</v>
       </c>
       <c r="AV45" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>1.269553264604811E-2</v>
       </c>
     </row>
@@ -7445,40 +7719,1703 @@
         <v>0.1945743254173363</v>
       </c>
       <c r="AM46" s="17">
-        <f t="shared" ref="AM46:AU46" si="112">SUM(AM39:AM45)</f>
+        <f t="shared" ref="AM46:AU46" si="133">SUM(AM39:AM45)</f>
         <v>0.20362735593159653</v>
       </c>
       <c r="AN46" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>0.22780793651297326</v>
       </c>
       <c r="AO46" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>0.24399280076396063</v>
       </c>
       <c r="AP46" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>0.22945189203207456</v>
       </c>
       <c r="AQ46" s="17">
-        <f t="shared" si="112"/>
-        <v>0.29982325486513089</v>
+        <f t="shared" si="133"/>
+        <v>0.30019383931498705</v>
       </c>
       <c r="AR46" s="17">
-        <f t="shared" si="112"/>
-        <v>0.30273838618329263</v>
+        <f t="shared" si="133"/>
+        <v>0.30310533745226786</v>
       </c>
       <c r="AS46" s="17">
-        <f t="shared" si="112"/>
-        <v>0.30336584455758492</v>
+        <f t="shared" si="133"/>
+        <v>0.30372919826509964</v>
       </c>
       <c r="AT46" s="17">
-        <f t="shared" si="112"/>
-        <v>0.30306610644295273</v>
+        <f t="shared" si="133"/>
+        <v>0.30342589785921725</v>
       </c>
       <c r="AU46" s="17">
-        <f t="shared" si="112"/>
-        <v>0.29306594649428996</v>
+        <f t="shared" si="133"/>
+        <v>0.29342221054372841</v>
+      </c>
+    </row>
+    <row r="49" spans="2:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA49" s="14">
+        <f>AA11</f>
+        <v>5181</v>
+      </c>
+      <c r="AE49" s="14">
+        <f>AE11</f>
+        <v>3110</v>
+      </c>
+      <c r="AK49" s="14">
+        <f t="shared" ref="AK49:AL49" si="134">AK11</f>
+        <v>18356</v>
+      </c>
+      <c r="AL49" s="14">
+        <f t="shared" si="134"/>
+        <v>11666</v>
+      </c>
+      <c r="AM49" s="14">
+        <f t="shared" ref="AM49:BA49" si="135">AM11</f>
+        <v>20126</v>
+      </c>
+      <c r="AN49" s="14">
+        <f t="shared" si="135"/>
+        <v>22043</v>
+      </c>
+      <c r="AO49" s="14">
+        <f t="shared" si="135"/>
+        <v>23194</v>
+      </c>
+      <c r="AP49" s="14">
+        <f t="shared" si="135"/>
+        <v>16805</v>
+      </c>
+      <c r="AQ49" s="14">
+        <f t="shared" si="135"/>
+        <v>16931.466250000041</v>
+      </c>
+      <c r="AR49" s="14">
+        <f t="shared" si="135"/>
+        <v>20156.881164999992</v>
+      </c>
+      <c r="AS49" s="14">
+        <f t="shared" si="135"/>
+        <v>20358.449976650001</v>
+      </c>
+      <c r="AT49" s="14">
+        <f t="shared" si="135"/>
+        <v>20562.034476416502</v>
+      </c>
+      <c r="AU49" s="14">
+        <f t="shared" si="135"/>
+        <v>20767.654821180662</v>
+      </c>
+      <c r="AV49" s="14">
+        <f t="shared" si="135"/>
+        <v>20975.331369392468</v>
+      </c>
+      <c r="AW49" s="14">
+        <f t="shared" si="135"/>
+        <v>21185.084683086403</v>
+      </c>
+      <c r="AX49" s="14">
+        <f t="shared" si="135"/>
+        <v>21396.935529917271</v>
+      </c>
+      <c r="AY49" s="14">
+        <f t="shared" si="135"/>
+        <v>21610.904885216434</v>
+      </c>
+      <c r="AZ49" s="14">
+        <f t="shared" si="135"/>
+        <v>21827.0139340686</v>
+      </c>
+      <c r="BA49" s="14">
+        <f t="shared" si="135"/>
+        <v>22045.284073409282</v>
+      </c>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA50" s="6">
+        <v>-1789</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>-1712</v>
+      </c>
+      <c r="AK50" s="6">
+        <v>-2914</v>
+      </c>
+      <c r="AL50" s="6">
+        <v>-2646</v>
+      </c>
+      <c r="AM50" s="6">
+        <v>-4216</v>
+      </c>
+      <c r="AN50" s="6">
+        <v>-4415</v>
+      </c>
+      <c r="AO50" s="6">
+        <v>-7716</v>
+      </c>
+      <c r="AP50" s="6">
+        <v>-6187</v>
+      </c>
+      <c r="AQ50" s="6">
+        <f>-AQ12-AQ13</f>
+        <v>-5839.0838624999997</v>
+      </c>
+      <c r="AR50" s="6">
+        <f t="shared" ref="AR50:BA50" si="136">-AR12-AR13</f>
+        <v>-6500.3384770999974</v>
+      </c>
+      <c r="AS50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6565.3418618710002</v>
+      </c>
+      <c r="AT50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6630.9952804897102</v>
+      </c>
+      <c r="AU50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6697.3052332946063</v>
+      </c>
+      <c r="AV50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6764.2782856275526</v>
+      </c>
+      <c r="AW50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6831.9210684838299</v>
+      </c>
+      <c r="AX50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6900.24027916867</v>
+      </c>
+      <c r="AY50" s="6">
+        <f t="shared" si="136"/>
+        <v>-6969.2426819603534</v>
+      </c>
+      <c r="AZ50" s="6">
+        <f t="shared" si="136"/>
+        <v>-7038.9351087799587</v>
+      </c>
+      <c r="BA50" s="6">
+        <f t="shared" si="136"/>
+        <v>-7109.3244598677566</v>
+      </c>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA51" s="6">
+        <v>7255</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>7798</v>
+      </c>
+      <c r="AK51" s="6">
+        <v>12046</v>
+      </c>
+      <c r="AL51" s="6">
+        <v>12765</v>
+      </c>
+      <c r="AM51" s="6">
+        <v>12947</v>
+      </c>
+      <c r="AN51" s="6">
+        <v>13364</v>
+      </c>
+      <c r="AO51" s="6">
+        <v>11727</v>
+      </c>
+      <c r="AP51" s="6">
+        <v>12858</v>
+      </c>
+      <c r="AQ51" s="6">
+        <f>AP51*1.01</f>
+        <v>12986.58</v>
+      </c>
+      <c r="AR51" s="6">
+        <f t="shared" ref="AR51:BA51" si="137">AQ51*1.01</f>
+        <v>13116.4458</v>
+      </c>
+      <c r="AS51" s="6">
+        <f t="shared" si="137"/>
+        <v>13247.610257999999</v>
+      </c>
+      <c r="AT51" s="6">
+        <f t="shared" si="137"/>
+        <v>13380.086360579999</v>
+      </c>
+      <c r="AU51" s="6">
+        <f t="shared" si="137"/>
+        <v>13513.887224185799</v>
+      </c>
+      <c r="AV51" s="6">
+        <f t="shared" si="137"/>
+        <v>13649.026096427657</v>
+      </c>
+      <c r="AW51" s="6">
+        <f t="shared" si="137"/>
+        <v>13785.516357391933</v>
+      </c>
+      <c r="AX51" s="6">
+        <f t="shared" si="137"/>
+        <v>13923.371520965851</v>
+      </c>
+      <c r="AY51" s="6">
+        <f t="shared" si="137"/>
+        <v>14062.60523617551</v>
+      </c>
+      <c r="AZ51" s="6">
+        <f t="shared" si="137"/>
+        <v>14203.231288537265</v>
+      </c>
+      <c r="BA51" s="6">
+        <f t="shared" si="137"/>
+        <v>14345.263601422637</v>
+      </c>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AK52" s="6">
+        <f>3665+300+8428</f>
+        <v>12393</v>
+      </c>
+      <c r="AL52" s="6">
+        <f>4637+454+9214</f>
+        <v>14305</v>
+      </c>
+      <c r="AM52" s="6">
+        <f>5050+137+9339</f>
+        <v>14526</v>
+      </c>
+      <c r="AN52" s="6">
+        <f>5144+2185+9977</f>
+        <v>17306</v>
+      </c>
+      <c r="AO52" s="6">
+        <f>5184+717+10655</f>
+        <v>16556</v>
+      </c>
+      <c r="AP52" s="6">
+        <f>7209+710+11279</f>
+        <v>19198</v>
+      </c>
+      <c r="AQ52" s="6">
+        <f>AO52*1.01</f>
+        <v>16721.560000000001</v>
+      </c>
+      <c r="AR52" s="6">
+        <f>AQ52*1.01</f>
+        <v>16888.775600000001</v>
+      </c>
+      <c r="AS52" s="6">
+        <f t="shared" ref="AS52:BA52" si="138">AR52*1.01</f>
+        <v>17057.663356000001</v>
+      </c>
+      <c r="AT52" s="6">
+        <f t="shared" si="138"/>
+        <v>17228.239989560003</v>
+      </c>
+      <c r="AU52" s="6">
+        <f t="shared" si="138"/>
+        <v>17400.522389455604</v>
+      </c>
+      <c r="AV52" s="6">
+        <f t="shared" si="138"/>
+        <v>17574.527613350161</v>
+      </c>
+      <c r="AW52" s="6">
+        <f t="shared" si="138"/>
+        <v>17750.272889483662</v>
+      </c>
+      <c r="AX52" s="6">
+        <f t="shared" si="138"/>
+        <v>17927.775618378499</v>
+      </c>
+      <c r="AY52" s="6">
+        <f t="shared" si="138"/>
+        <v>18107.053374562285</v>
+      </c>
+      <c r="AZ52" s="6">
+        <f t="shared" si="138"/>
+        <v>18288.123908307909</v>
+      </c>
+      <c r="BA52" s="6">
+        <f t="shared" si="138"/>
+        <v>18471.005147390988</v>
+      </c>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA53" s="6">
+        <v>45</v>
+      </c>
+      <c r="AE53" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>-259</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>-229</v>
+      </c>
+      <c r="AK54" s="6">
+        <f>-4+460</f>
+        <v>456</v>
+      </c>
+      <c r="AL54" s="6">
+        <f>-889+536</f>
+        <v>-353</v>
+      </c>
+      <c r="AM54" s="6">
+        <f>180+787</f>
+        <v>967</v>
+      </c>
+      <c r="AN54" s="6">
+        <f>30+575</f>
+        <v>605</v>
+      </c>
+      <c r="AO54" s="6">
+        <f>208+271</f>
+        <v>479</v>
+      </c>
+      <c r="AP54" s="6">
+        <f>110+2362</f>
+        <v>2472</v>
+      </c>
+      <c r="AQ54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA55" s="6">
+        <v>47</v>
+      </c>
+      <c r="AE55" s="6">
+        <v>-269</v>
+      </c>
+      <c r="AK55" s="6">
+        <v>-730</v>
+      </c>
+      <c r="AL55" s="6">
+        <v>-1572</v>
+      </c>
+      <c r="AM55" s="6">
+        <v>-1652</v>
+      </c>
+      <c r="AN55" s="6">
+        <v>-542</v>
+      </c>
+      <c r="AO55" s="6">
+        <v>3953</v>
+      </c>
+      <c r="AP55" s="6">
+        <v>903</v>
+      </c>
+      <c r="AQ55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>-5515</v>
+      </c>
+      <c r="AE56" s="6">
+        <v>-4541</v>
+      </c>
+      <c r="AK56" s="6">
+        <v>-674</v>
+      </c>
+      <c r="AL56" s="6">
+        <v>1334</v>
+      </c>
+      <c r="AM56" s="6">
+        <v>2110</v>
+      </c>
+      <c r="AN56" s="6">
+        <v>-8385</v>
+      </c>
+      <c r="AO56" s="6">
+        <v>-2071</v>
+      </c>
+      <c r="AP56" s="6">
+        <v>-2695</v>
+      </c>
+      <c r="AQ56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA57" s="6">
+        <v>-2805</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>-3577</v>
+      </c>
+      <c r="AK57" s="6">
+        <v>-893</v>
+      </c>
+      <c r="AL57" s="6">
+        <v>712</v>
+      </c>
+      <c r="AM57" s="6">
+        <v>1888</v>
+      </c>
+      <c r="AN57" s="6">
+        <v>-3207</v>
+      </c>
+      <c r="AO57" s="6">
+        <v>-4361</v>
+      </c>
+      <c r="AP57" s="6">
+        <v>-2083</v>
+      </c>
+      <c r="AQ57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA58" s="6">
+        <v>4100</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>7895</v>
+      </c>
+      <c r="AK58" s="6">
+        <v>2297</v>
+      </c>
+      <c r="AL58" s="6">
+        <v>540</v>
+      </c>
+      <c r="AM58" s="6">
+        <v>1856</v>
+      </c>
+      <c r="AN58" s="6">
+        <v>8586</v>
+      </c>
+      <c r="AO58" s="6">
+        <v>5272</v>
+      </c>
+      <c r="AP58" s="6">
+        <v>52</v>
+      </c>
+      <c r="AQ58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA59" s="6">
+        <v>68</v>
+      </c>
+      <c r="AE59" s="6">
+        <v>143</v>
+      </c>
+      <c r="AK59" s="6">
+        <v>1646</v>
+      </c>
+      <c r="AL59" s="6">
+        <v>803</v>
+      </c>
+      <c r="AM59" s="6">
+        <v>1943</v>
+      </c>
+      <c r="AN59" s="6">
+        <v>-1856</v>
+      </c>
+      <c r="AO59" s="6">
+        <v>715</v>
+      </c>
+      <c r="AP59" s="6">
+        <v>4247</v>
+      </c>
+      <c r="AQ59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA60" s="6">
+        <v>-3963</v>
+      </c>
+      <c r="AE60" s="6">
+        <v>-5486</v>
+      </c>
+      <c r="AK60" s="6">
+        <v>-13204</v>
+      </c>
+      <c r="AL60" s="6">
+        <v>-12914</v>
+      </c>
+      <c r="AM60" s="6">
+        <v>-16205</v>
+      </c>
+      <c r="AN60" s="6">
+        <v>-8711</v>
+      </c>
+      <c r="AO60" s="6">
+        <v>-14964</v>
+      </c>
+      <c r="AP60" s="6">
+        <v>-19358</v>
+      </c>
+      <c r="AQ60" s="6">
+        <v>-5000</v>
+      </c>
+      <c r="AR60" s="6">
+        <f>AQ60*1.01</f>
+        <v>-5050</v>
+      </c>
+      <c r="AS60" s="6">
+        <f t="shared" ref="AS60:BA60" si="139">AR60*1.01</f>
+        <v>-5100.5</v>
+      </c>
+      <c r="AT60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5151.5050000000001</v>
+      </c>
+      <c r="AU60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5203.0200500000001</v>
+      </c>
+      <c r="AV60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5255.0502505000004</v>
+      </c>
+      <c r="AW60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5307.6007530050001</v>
+      </c>
+      <c r="AX60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5360.6767605350506</v>
+      </c>
+      <c r="AY60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5414.2835281404014</v>
+      </c>
+      <c r="AZ60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5468.426363421805</v>
+      </c>
+      <c r="BA60" s="6">
+        <f t="shared" si="139"/>
+        <v>-5523.1106270560231</v>
+      </c>
+    </row>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA61" s="6">
+        <v>-555</v>
+      </c>
+      <c r="AE61" s="6">
+        <v>-156</v>
+      </c>
+      <c r="AK61" s="6">
+        <v>-10796</v>
+      </c>
+      <c r="AL61" s="6">
+        <v>260</v>
+      </c>
+      <c r="AM61" s="6">
+        <v>4345</v>
+      </c>
+      <c r="AN61" s="6">
+        <v>-6294</v>
+      </c>
+      <c r="AO61" s="6">
+        <v>-13332</v>
+      </c>
+      <c r="AP61" s="6">
+        <v>-9061</v>
+      </c>
+      <c r="AQ61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA62" s="14">
+        <f>AA49+SUM(AA50:AA61)</f>
+        <v>1810</v>
+      </c>
+      <c r="AE62" s="14">
+        <f>AE49+SUM(AE50:AE61)</f>
+        <v>2977</v>
+      </c>
+      <c r="AK62" s="14">
+        <f>AK49+SUM(AK50:AK61)</f>
+        <v>17983</v>
+      </c>
+      <c r="AL62" s="14">
+        <f>AL49+SUM(AL50:AL61)</f>
+        <v>24900</v>
+      </c>
+      <c r="AM62" s="14">
+        <f>AM49+SUM(AM50:AM61)</f>
+        <v>38635</v>
+      </c>
+      <c r="AN62" s="14">
+        <f>AN49+SUM(AN50:AN61)</f>
+        <v>28494</v>
+      </c>
+      <c r="AO62" s="14">
+        <f>AO49+SUM(AO50:AO61)</f>
+        <v>19452</v>
+      </c>
+      <c r="AP62" s="14">
+        <f>AP49+SUM(AP50:AP61)</f>
+        <v>17151</v>
+      </c>
+      <c r="AQ62" s="14">
+        <f>AQ49+SUM(AQ50:AQ61)</f>
+        <v>35800.522387500045</v>
+      </c>
+      <c r="AR62" s="14">
+        <f t="shared" ref="AR62:BA62" si="140">AR49+SUM(AR50:AR61)</f>
+        <v>38611.764087899996</v>
+      </c>
+      <c r="AS62" s="14">
+        <f t="shared" si="140"/>
+        <v>38997.881728779001</v>
+      </c>
+      <c r="AT62" s="14">
+        <f t="shared" si="140"/>
+        <v>39387.86054606679</v>
+      </c>
+      <c r="AU62" s="14">
+        <f t="shared" si="140"/>
+        <v>39781.739151527465</v>
+      </c>
+      <c r="AV62" s="14">
+        <f t="shared" si="140"/>
+        <v>40179.556543042738</v>
+      </c>
+      <c r="AW62" s="14">
+        <f t="shared" si="140"/>
+        <v>40581.352108473162</v>
+      </c>
+      <c r="AX62" s="14">
+        <f t="shared" si="140"/>
+        <v>40987.165629557901</v>
+      </c>
+      <c r="AY62" s="14">
+        <f t="shared" si="140"/>
+        <v>41397.037285853476</v>
+      </c>
+      <c r="AZ62" s="14">
+        <f t="shared" si="140"/>
+        <v>41811.007658712013</v>
+      </c>
+      <c r="BA62" s="14">
+        <f t="shared" si="140"/>
+        <v>42229.117735299129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA63" s="6">
+        <v>2787</v>
+      </c>
+      <c r="AE63" s="6">
+        <v>2866</v>
+      </c>
+      <c r="AK63" s="6">
+        <v>14230</v>
+      </c>
+      <c r="AL63" s="6">
+        <v>11273</v>
+      </c>
+      <c r="AM63" s="6">
+        <v>10655</v>
+      </c>
+      <c r="AN63" s="6">
+        <v>12948</v>
+      </c>
+      <c r="AO63" s="6">
+        <v>14653</v>
+      </c>
+      <c r="AP63" s="6">
+        <v>17202</v>
+      </c>
+      <c r="AQ63" s="6">
+        <f>AP63*0.95</f>
+        <v>16341.9</v>
+      </c>
+      <c r="AR63" s="6">
+        <f t="shared" ref="AR63:BA63" si="141">AQ63*0.95</f>
+        <v>15524.804999999998</v>
+      </c>
+      <c r="AS63" s="6">
+        <f t="shared" si="141"/>
+        <v>14748.564749999998</v>
+      </c>
+      <c r="AT63" s="6">
+        <f t="shared" si="141"/>
+        <v>14011.136512499997</v>
+      </c>
+      <c r="AU63" s="6">
+        <f>AT63*1.01</f>
+        <v>14151.247877624997</v>
+      </c>
+      <c r="AV63" s="6">
+        <f t="shared" ref="AV63:BA63" si="142">AU63*1.01</f>
+        <v>14292.760356401248</v>
+      </c>
+      <c r="AW63" s="6">
+        <f t="shared" si="142"/>
+        <v>14435.68795996526</v>
+      </c>
+      <c r="AX63" s="6">
+        <f t="shared" si="142"/>
+        <v>14580.044839564913</v>
+      </c>
+      <c r="AY63" s="6">
+        <f t="shared" si="142"/>
+        <v>14725.845287960563</v>
+      </c>
+      <c r="AZ63" s="6">
+        <f t="shared" si="142"/>
+        <v>14873.103740840168</v>
+      </c>
+      <c r="BA63" s="6">
+        <f t="shared" si="142"/>
+        <v>15021.834778248571</v>
+      </c>
+    </row>
+    <row r="64" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA64" s="6">
+        <v>2834</v>
+      </c>
+      <c r="AE64" s="6">
+        <v>2222</v>
+      </c>
+      <c r="AK64" s="6">
+        <v>5171</v>
+      </c>
+      <c r="AL64" s="6">
+        <v>6473</v>
+      </c>
+      <c r="AM64" s="6">
+        <v>7843</v>
+      </c>
+      <c r="AN64" s="6">
+        <v>9723</v>
+      </c>
+      <c r="AO64" s="6">
+        <v>11142</v>
+      </c>
+      <c r="AP64" s="6">
+        <v>10244</v>
+      </c>
+      <c r="AQ64" s="6">
+        <f t="shared" ref="AQ64:BA64" si="143">AP64*0.95</f>
+        <v>9731.7999999999993</v>
+      </c>
+      <c r="AR64" s="6">
+        <f>AQ64*1.01</f>
+        <v>9829.1179999999986</v>
+      </c>
+      <c r="AS64" s="6">
+        <f t="shared" ref="AS64:BA64" si="144">AR64*1.01</f>
+        <v>9927.4091799999987</v>
+      </c>
+      <c r="AT64" s="6">
+        <f t="shared" si="144"/>
+        <v>10026.683271799999</v>
+      </c>
+      <c r="AU64" s="6">
+        <f t="shared" si="144"/>
+        <v>10126.950104517999</v>
+      </c>
+      <c r="AV64" s="6">
+        <f t="shared" si="144"/>
+        <v>10228.219605563179</v>
+      </c>
+      <c r="AW64" s="6">
+        <f t="shared" si="144"/>
+        <v>10330.501801618811</v>
+      </c>
+      <c r="AX64" s="6">
+        <f t="shared" si="144"/>
+        <v>10433.806819635</v>
+      </c>
+      <c r="AY64" s="6">
+        <f t="shared" si="144"/>
+        <v>10538.144887831349</v>
+      </c>
+      <c r="AZ64" s="6">
+        <f t="shared" si="144"/>
+        <v>10643.526336709663</v>
+      </c>
+      <c r="BA64" s="6">
+        <f t="shared" si="144"/>
+        <v>10749.96160007676</v>
+      </c>
+    </row>
+    <row r="65" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA65" s="6">
+        <f>SUM(AA63:AA64)</f>
+        <v>5621</v>
+      </c>
+      <c r="AE65" s="6">
+        <f>SUM(AE63:AE64)</f>
+        <v>5088</v>
+      </c>
+      <c r="AK65" s="6">
+        <f>SUM(AK63:AK64)</f>
+        <v>19401</v>
+      </c>
+      <c r="AL65" s="6">
+        <f>SUM(AL63:AL64)</f>
+        <v>17746</v>
+      </c>
+      <c r="AM65" s="6">
+        <f>SUM(AM63:AM64)</f>
+        <v>18498</v>
+      </c>
+      <c r="AN65" s="6">
+        <f>SUM(AN63:AN64)</f>
+        <v>22671</v>
+      </c>
+      <c r="AO65" s="6">
+        <f>SUM(AO63:AO64)</f>
+        <v>25795</v>
+      </c>
+      <c r="AP65" s="6">
+        <f>SUM(AP63:AP64)</f>
+        <v>27446</v>
+      </c>
+      <c r="AQ65" s="6">
+        <f>SUM(AQ63:AQ64)</f>
+        <v>26073.699999999997</v>
+      </c>
+      <c r="AR65" s="6">
+        <f t="shared" ref="AR65:BA65" si="145">SUM(AR63:AR64)</f>
+        <v>25353.922999999995</v>
+      </c>
+      <c r="AS65" s="6">
+        <f t="shared" si="145"/>
+        <v>24675.973929999996</v>
+      </c>
+      <c r="AT65" s="6">
+        <f t="shared" si="145"/>
+        <v>24037.819784299994</v>
+      </c>
+      <c r="AU65" s="6">
+        <f t="shared" si="145"/>
+        <v>24278.197982142996</v>
+      </c>
+      <c r="AV65" s="6">
+        <f t="shared" si="145"/>
+        <v>24520.979961964425</v>
+      </c>
+      <c r="AW65" s="6">
+        <f t="shared" si="145"/>
+        <v>24766.189761584072</v>
+      </c>
+      <c r="AX65" s="6">
+        <f t="shared" si="145"/>
+        <v>25013.851659199914</v>
+      </c>
+      <c r="AY65" s="6">
+        <f t="shared" si="145"/>
+        <v>25263.990175791914</v>
+      </c>
+      <c r="AZ65" s="6">
+        <f t="shared" si="145"/>
+        <v>25516.630077549831</v>
+      </c>
+      <c r="BA65" s="6">
+        <f t="shared" si="145"/>
+        <v>25771.796378325329</v>
+      </c>
+    </row>
+    <row r="66" spans="2:139" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA66" s="14">
+        <f>AA62-AA65</f>
+        <v>-3811</v>
+      </c>
+      <c r="AE66" s="14">
+        <f>AE62-AE65</f>
+        <v>-2111</v>
+      </c>
+      <c r="AK66" s="14">
+        <f>AK62-AK65</f>
+        <v>-1418</v>
+      </c>
+      <c r="AL66" s="14">
+        <f>AL62-AL65</f>
+        <v>7154</v>
+      </c>
+      <c r="AM66" s="14">
+        <f>AM62-AM65</f>
+        <v>20137</v>
+      </c>
+      <c r="AN66" s="14">
+        <f>AN62-AN65</f>
+        <v>5823</v>
+      </c>
+      <c r="AO66" s="14">
+        <f>AO62-AO65</f>
+        <v>-6343</v>
+      </c>
+      <c r="AP66" s="14">
+        <f>AP62-AP65</f>
+        <v>-10295</v>
+      </c>
+      <c r="AQ66" s="14">
+        <f>AQ62-AQ65</f>
+        <v>9726.8223875000476</v>
+      </c>
+      <c r="AR66" s="14">
+        <f t="shared" ref="AR66:BA66" si="146">AR62-AR65</f>
+        <v>13257.8410879</v>
+      </c>
+      <c r="AS66" s="14">
+        <f t="shared" si="146"/>
+        <v>14321.907798779004</v>
+      </c>
+      <c r="AT66" s="14">
+        <f t="shared" si="146"/>
+        <v>15350.040761766795</v>
+      </c>
+      <c r="AU66" s="14">
+        <f t="shared" si="146"/>
+        <v>15503.541169384469</v>
+      </c>
+      <c r="AV66" s="14">
+        <f t="shared" si="146"/>
+        <v>15658.576581078312</v>
+      </c>
+      <c r="AW66" s="14">
+        <f t="shared" si="146"/>
+        <v>15815.16234688909</v>
+      </c>
+      <c r="AX66" s="14">
+        <f t="shared" si="146"/>
+        <v>15973.313970357987</v>
+      </c>
+      <c r="AY66" s="14">
+        <f t="shared" si="146"/>
+        <v>16133.047110061561</v>
+      </c>
+      <c r="AZ66" s="14">
+        <f t="shared" si="146"/>
+        <v>16294.377581162182</v>
+      </c>
+      <c r="BA66" s="14">
+        <f t="shared" si="146"/>
+        <v>16457.3213569738</v>
+      </c>
+      <c r="BB66" s="3">
+        <f>BA66*(1+$BD$21)</f>
+        <v>16292.748143404062</v>
+      </c>
+      <c r="BC66" s="3">
+        <f t="shared" ref="BC66:DN66" si="147">BB66*(1+$BD$21)</f>
+        <v>16129.820661970021</v>
+      </c>
+      <c r="BD66" s="3">
+        <f t="shared" si="147"/>
+        <v>15968.522455350321</v>
+      </c>
+      <c r="BE66" s="3">
+        <f t="shared" si="147"/>
+        <v>15808.837230796818</v>
+      </c>
+      <c r="BF66" s="3">
+        <f t="shared" si="147"/>
+        <v>15650.748858488851</v>
+      </c>
+      <c r="BG66" s="3">
+        <f t="shared" si="147"/>
+        <v>15494.241369903963</v>
+      </c>
+      <c r="BH66" s="3">
+        <f t="shared" si="147"/>
+        <v>15339.298956204922</v>
+      </c>
+      <c r="BI66" s="3">
+        <f t="shared" si="147"/>
+        <v>15185.905966642873</v>
+      </c>
+      <c r="BJ66" s="3">
+        <f t="shared" si="147"/>
+        <v>15034.046906976444</v>
+      </c>
+      <c r="BK66" s="3">
+        <f t="shared" si="147"/>
+        <v>14883.70643790668</v>
+      </c>
+      <c r="BL66" s="3">
+        <f t="shared" si="147"/>
+        <v>14734.869373527612</v>
+      </c>
+      <c r="BM66" s="3">
+        <f t="shared" si="147"/>
+        <v>14587.520679792337</v>
+      </c>
+      <c r="BN66" s="3">
+        <f t="shared" si="147"/>
+        <v>14441.645472994413</v>
+      </c>
+      <c r="BO66" s="3">
+        <f t="shared" si="147"/>
+        <v>14297.229018264468</v>
+      </c>
+      <c r="BP66" s="3">
+        <f t="shared" si="147"/>
+        <v>14154.256728081824</v>
+      </c>
+      <c r="BQ66" s="3">
+        <f t="shared" si="147"/>
+        <v>14012.714160801006</v>
+      </c>
+      <c r="BR66" s="3">
+        <f t="shared" si="147"/>
+        <v>13872.587019192995</v>
+      </c>
+      <c r="BS66" s="3">
+        <f t="shared" si="147"/>
+        <v>13733.861149001064</v>
+      </c>
+      <c r="BT66" s="3">
+        <f t="shared" si="147"/>
+        <v>13596.522537511053</v>
+      </c>
+      <c r="BU66" s="3">
+        <f t="shared" si="147"/>
+        <v>13460.557312135943</v>
+      </c>
+      <c r="BV66" s="3">
+        <f t="shared" si="147"/>
+        <v>13325.951739014583</v>
+      </c>
+      <c r="BW66" s="3">
+        <f t="shared" si="147"/>
+        <v>13192.692221624437</v>
+      </c>
+      <c r="BX66" s="3">
+        <f t="shared" si="147"/>
+        <v>13060.765299408193</v>
+      </c>
+      <c r="BY66" s="3">
+        <f t="shared" si="147"/>
+        <v>12930.157646414111</v>
+      </c>
+      <c r="BZ66" s="3">
+        <f t="shared" si="147"/>
+        <v>12800.85606994997</v>
+      </c>
+      <c r="CA66" s="3">
+        <f t="shared" si="147"/>
+        <v>12672.84750925047</v>
+      </c>
+      <c r="CB66" s="3">
+        <f t="shared" si="147"/>
+        <v>12546.119034157966</v>
+      </c>
+      <c r="CC66" s="3">
+        <f t="shared" si="147"/>
+        <v>12420.657843816387</v>
+      </c>
+      <c r="CD66" s="3">
+        <f t="shared" si="147"/>
+        <v>12296.451265378222</v>
+      </c>
+      <c r="CE66" s="3">
+        <f t="shared" si="147"/>
+        <v>12173.486752724441</v>
+      </c>
+      <c r="CF66" s="3">
+        <f t="shared" si="147"/>
+        <v>12051.751885197196</v>
+      </c>
+      <c r="CG66" s="3">
+        <f t="shared" si="147"/>
+        <v>11931.234366345225</v>
+      </c>
+      <c r="CH66" s="3">
+        <f t="shared" si="147"/>
+        <v>11811.922022681772</v>
+      </c>
+      <c r="CI66" s="3">
+        <f t="shared" si="147"/>
+        <v>11693.802802454955</v>
+      </c>
+      <c r="CJ66" s="3">
+        <f t="shared" si="147"/>
+        <v>11576.864774430405</v>
+      </c>
+      <c r="CK66" s="3">
+        <f t="shared" si="147"/>
+        <v>11461.096126686101</v>
+      </c>
+      <c r="CL66" s="3">
+        <f t="shared" si="147"/>
+        <v>11346.485165419241</v>
+      </c>
+      <c r="CM66" s="3">
+        <f t="shared" si="147"/>
+        <v>11233.020313765048</v>
+      </c>
+      <c r="CN66" s="3">
+        <f t="shared" si="147"/>
+        <v>11120.690110627398</v>
+      </c>
+      <c r="CO66" s="3">
+        <f t="shared" si="147"/>
+        <v>11009.483209521124</v>
+      </c>
+      <c r="CP66" s="3">
+        <f t="shared" si="147"/>
+        <v>10899.388377425912</v>
+      </c>
+      <c r="CQ66" s="3">
+        <f t="shared" si="147"/>
+        <v>10790.394493651653</v>
+      </c>
+      <c r="CR66" s="3">
+        <f t="shared" si="147"/>
+        <v>10682.490548715135</v>
+      </c>
+      <c r="CS66" s="3">
+        <f t="shared" si="147"/>
+        <v>10575.665643227983</v>
+      </c>
+      <c r="CT66" s="3">
+        <f t="shared" si="147"/>
+        <v>10469.908986795703</v>
+      </c>
+      <c r="CU66" s="3">
+        <f t="shared" si="147"/>
+        <v>10365.209896927745</v>
+      </c>
+      <c r="CV66" s="3">
+        <f t="shared" si="147"/>
+        <v>10261.557797958467</v>
+      </c>
+      <c r="CW66" s="3">
+        <f t="shared" si="147"/>
+        <v>10158.942219978882</v>
+      </c>
+      <c r="CX66" s="3">
+        <f t="shared" si="147"/>
+        <v>10057.352797779093</v>
+      </c>
+      <c r="CY66" s="3">
+        <f t="shared" si="147"/>
+        <v>9956.7792698013018</v>
+      </c>
+      <c r="CZ66" s="3">
+        <f t="shared" si="147"/>
+        <v>9857.2114771032884</v>
+      </c>
+      <c r="DA66" s="3">
+        <f t="shared" si="147"/>
+        <v>9758.6393623322547</v>
+      </c>
+      <c r="DB66" s="3">
+        <f t="shared" si="147"/>
+        <v>9661.0529687089329</v>
+      </c>
+      <c r="DC66" s="3">
+        <f t="shared" si="147"/>
+        <v>9564.4424390218428</v>
+      </c>
+      <c r="DD66" s="3">
+        <f t="shared" si="147"/>
+        <v>9468.798014631624</v>
+      </c>
+      <c r="DE66" s="3">
+        <f t="shared" si="147"/>
+        <v>9374.1100344853076</v>
+      </c>
+      <c r="DF66" s="3">
+        <f t="shared" si="147"/>
+        <v>9280.3689341404552</v>
+      </c>
+      <c r="DG66" s="3">
+        <f t="shared" si="147"/>
+        <v>9187.5652447990506</v>
+      </c>
+      <c r="DH66" s="3">
+        <f t="shared" si="147"/>
+        <v>9095.6895923510601</v>
+      </c>
+      <c r="DI66" s="3">
+        <f t="shared" si="147"/>
+        <v>9004.7326964275489</v>
+      </c>
+      <c r="DJ66" s="3">
+        <f t="shared" si="147"/>
+        <v>8914.6853694632737</v>
+      </c>
+      <c r="DK66" s="3">
+        <f t="shared" si="147"/>
+        <v>8825.5385157686414</v>
+      </c>
+      <c r="DL66" s="3">
+        <f t="shared" si="147"/>
+        <v>8737.2831306109547</v>
+      </c>
+      <c r="DM66" s="3">
+        <f t="shared" si="147"/>
+        <v>8649.9102993048455</v>
+      </c>
+      <c r="DN66" s="3">
+        <f t="shared" si="147"/>
+        <v>8563.4111963117975</v>
+      </c>
+      <c r="DO66" s="3">
+        <f t="shared" ref="DO66:EI66" si="148">DN66*(1+$BD$21)</f>
+        <v>8477.7770843486796</v>
+      </c>
+      <c r="DP66" s="3">
+        <f t="shared" si="148"/>
+        <v>8392.9993135051936</v>
+      </c>
+      <c r="DQ66" s="3">
+        <f t="shared" si="148"/>
+        <v>8309.0693203701412</v>
+      </c>
+      <c r="DR66" s="3">
+        <f t="shared" si="148"/>
+        <v>8225.9786271664398</v>
+      </c>
+      <c r="DS66" s="3">
+        <f t="shared" si="148"/>
+        <v>8143.718840894775</v>
+      </c>
+      <c r="DT66" s="3">
+        <f t="shared" si="148"/>
+        <v>8062.2816524858272</v>
+      </c>
+      <c r="DU66" s="3">
+        <f t="shared" si="148"/>
+        <v>7981.6588359609686</v>
+      </c>
+      <c r="DV66" s="3">
+        <f t="shared" si="148"/>
+        <v>7901.8422476013593</v>
+      </c>
+      <c r="DW66" s="3">
+        <f t="shared" si="148"/>
+        <v>7822.823825125346</v>
+      </c>
+      <c r="DX66" s="3">
+        <f t="shared" si="148"/>
+        <v>7744.5955868740921</v>
+      </c>
+      <c r="DY66" s="3">
+        <f t="shared" si="148"/>
+        <v>7667.1496310053508</v>
+      </c>
+      <c r="DZ66" s="3">
+        <f t="shared" si="148"/>
+        <v>7590.4781346952968</v>
+      </c>
+      <c r="EA66" s="3">
+        <f t="shared" si="148"/>
+        <v>7514.5733533483435</v>
+      </c>
+      <c r="EB66" s="3">
+        <f t="shared" si="148"/>
+        <v>7439.42761981486</v>
+      </c>
+      <c r="EC66" s="3">
+        <f t="shared" si="148"/>
+        <v>7365.0333436167111</v>
+      </c>
+      <c r="ED66" s="3">
+        <f t="shared" si="148"/>
+        <v>7291.3830101805443</v>
+      </c>
+      <c r="EE66" s="3">
+        <f t="shared" si="148"/>
+        <v>7218.4691800787386</v>
+      </c>
+      <c r="EF66" s="3">
+        <f t="shared" si="148"/>
+        <v>7146.2844882779509</v>
+      </c>
+      <c r="EG66" s="3">
+        <f t="shared" si="148"/>
+        <v>7074.8216433951711</v>
+      </c>
+      <c r="EH66" s="3">
+        <f t="shared" si="148"/>
+        <v>7004.0734269612194</v>
+      </c>
+      <c r="EI66" s="3">
+        <f t="shared" si="148"/>
+        <v>6934.0326926916068</v>
+      </c>
+    </row>
+    <row r="68" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="BC68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD68" s="6">
+        <f>NPV(BD22,AQ66:EI66)</f>
+        <v>237907.72875225107</v>
+      </c>
+    </row>
+    <row r="69" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="BC69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD69" s="6">
+        <f>Main!D8</f>
+        <v>-187383</v>
+      </c>
+    </row>
+    <row r="70" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="BC70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD70" s="6">
+        <f>BD68+BD69</f>
+        <v>50524.728752251074</v>
+      </c>
+    </row>
+    <row r="71" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="BC71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD71" s="4">
+        <f>BD70/BA15</f>
+        <v>100.78741023788365</v>
+      </c>
+    </row>
+    <row r="72" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="BC72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD72" s="4">
+        <f>Main!D3</f>
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:139" x14ac:dyDescent="0.3">
+      <c r="BC73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD73" s="16">
+        <f>BD71/BD72-1</f>
+        <v>2.4262299165484169E-2</v>
       </c>
     </row>
   </sheetData>
